--- a/src/lib/scripts/seed-data/data/accelerators-bulk.xlsx
+++ b/src/lib/scripts/seed-data/data/accelerators-bulk.xlsx
@@ -397,12 +397,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="44.83203125" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
@@ -425,6 +425,7 @@
     <col min="21" max="21" width="13.83203125" customWidth="1"/>
     <col min="22" max="22" width="11.83203125" customWidth="1"/>
     <col min="23" max="23" width="35.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,6 +498,9 @@
       <c r="W1" t="str">
         <v>notes</v>
       </c>
+      <c r="X1" t="str">
+        <v>visibility_level</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -521,7 +525,7 @@
         <v>6 months</v>
       </c>
       <c r="H2" t="str">
-        <v>London, UK</v>
+        <v>New York, NY</v>
       </c>
       <c r="I2" t="str">
         <v>true</v>
@@ -530,43 +534,46 @@
         <v>11-20</v>
       </c>
       <c r="K2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M2" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N2" t="str">
-        <v>Gaming,B2B SaaS,Web3</v>
+        <v>Gaming,B2B SaaS,Fintech</v>
       </c>
       <c r="O2" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P2" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q2" t="str">
-        <v>25K-50K</v>
+        <v>0-25K</v>
       </c>
       <c r="R2" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S2" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T2" t="str">
-        <v>video,pitch_deck</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U2" t="str">
-        <v>0</v>
+        <v>5968</v>
       </c>
       <c r="V2" t="str">
         <v>true</v>
       </c>
       <c r="W2" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X2" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +581,49 @@
         <v>Techstars</v>
       </c>
       <c r="B3" t="str">
-        <v>https://techstars.io</v>
+        <v>https://techstars.com</v>
       </c>
       <c r="C3" t="str">
-        <v>https://techstars.io/apply</v>
+        <v>https://techstars.com/apply</v>
       </c>
       <c r="D3" t="str">
-        <v>apply@techstars.io</v>
+        <v>apply@techstars.com</v>
       </c>
       <c r="E3" t="str">
         <v>form</v>
       </c>
       <c r="F3" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G3" t="str">
         <v>3 months</v>
       </c>
       <c r="H3" t="str">
-        <v>Singapore</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I3" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J3" t="str">
         <v>1-10</v>
       </c>
       <c r="K3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M3" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N3" t="str">
-        <v>Healthtech,Web3,B2B SaaS</v>
+        <v>B2B SaaS,Web3,Fintech</v>
       </c>
       <c r="O3" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P3" t="str">
-        <v>4-6%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q3" t="str">
         <v>0-25K</v>
@@ -628,7 +635,7 @@
         <v>standard</v>
       </c>
       <c r="T3" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>traction_data,pitch_deck</v>
       </c>
       <c r="U3" t="str">
         <v>0</v>
@@ -638,6 +645,9 @@
       </c>
       <c r="W3" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X3" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="4">
@@ -645,13 +655,13 @@
         <v>500 Startups</v>
       </c>
       <c r="B4" t="str">
-        <v>https://500startups.io</v>
+        <v>https://500startups.com</v>
       </c>
       <c r="C4" t="str">
-        <v>https://500startups.io/apply</v>
+        <v>https://500startups.com/apply</v>
       </c>
       <c r="D4" t="str">
-        <v>apply@500startups.io</v>
+        <v>apply@500startups.com</v>
       </c>
       <c r="E4" t="str">
         <v>form</v>
@@ -660,55 +670,58 @@
         <v>remote</v>
       </c>
       <c r="G4" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H4" t="str">
-        <v>New York, NY</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I4" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J4" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K4" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M4" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N4" t="str">
-        <v>Marketplace,AI/ML,Gaming</v>
+        <v>AI/ML,Developer tools,Fintech</v>
       </c>
       <c r="O4" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="P4" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q4" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R4" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S4" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T4" t="str">
-        <v>business_plan,video</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U4" t="str">
-        <v>2409</v>
+        <v>3970</v>
       </c>
       <c r="V4" t="str">
         <v>true</v>
       </c>
       <c r="W4" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X4" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="5">
@@ -728,7 +741,7 @@
         <v>form</v>
       </c>
       <c r="F5" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G5" t="str">
         <v>12 months</v>
@@ -743,43 +756,46 @@
         <v>1-10</v>
       </c>
       <c r="K5" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M5" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N5" t="str">
-        <v>E-commerce,AI/ML,Web3</v>
+        <v>Gaming,Deep tech,AI/ML</v>
       </c>
       <c r="O5" t="str">
-        <v>Asia</v>
+        <v>Global</v>
       </c>
       <c r="P5" t="str">
-        <v>0%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q5" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R5" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S5" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T5" t="str">
-        <v>financial_projections,traction_data</v>
+        <v>traction_data,pitch_deck</v>
       </c>
       <c r="U5" t="str">
-        <v>3545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="str">
         <v>true</v>
       </c>
       <c r="W5" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X5" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="6">
@@ -787,13 +803,13 @@
         <v>AngelPad</v>
       </c>
       <c r="B6" t="str">
-        <v>https://angelpad.co</v>
+        <v>https://angelpad.capital</v>
       </c>
       <c r="C6" t="str">
-        <v>https://angelpad.co/apply</v>
+        <v>https://angelpad.capital/apply</v>
       </c>
       <c r="D6" t="str">
-        <v>apply@angelpad.co</v>
+        <v>apply@angelpad.capital</v>
       </c>
       <c r="E6" t="str">
         <v>form</v>
@@ -802,19 +818,19 @@
         <v>in-person</v>
       </c>
       <c r="G6" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H6" t="str">
-        <v>Boston, MA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I6" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J6" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K6" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" t="str">
         <v>2024-12-31</v>
@@ -823,34 +839,37 @@
         <v>Series A,Seed</v>
       </c>
       <c r="N6" t="str">
-        <v>E-commerce,Marketplace,Deep tech</v>
+        <v>Deep tech,E-commerce,B2B SaaS</v>
       </c>
       <c r="O6" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P6" t="str">
-        <v>1-3%</v>
+        <v>0%</v>
       </c>
       <c r="Q6" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R6" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S6" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T6" t="str">
-        <v>financial_projections,video</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U6" t="str">
-        <v>0</v>
+        <v>5024</v>
       </c>
       <c r="V6" t="str">
         <v>true</v>
       </c>
       <c r="W6" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X6" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="7">
@@ -858,13 +877,13 @@
         <v>Seedcamp</v>
       </c>
       <c r="B7" t="str">
-        <v>https://seedcamp.io</v>
+        <v>https://seedcamp.capital</v>
       </c>
       <c r="C7" t="str">
-        <v>https://seedcamp.io/apply</v>
+        <v>https://seedcamp.capital/apply</v>
       </c>
       <c r="D7" t="str">
-        <v>apply@seedcamp.io</v>
+        <v>apply@seedcamp.capital</v>
       </c>
       <c r="E7" t="str">
         <v>form</v>
@@ -876,16 +895,16 @@
         <v>3 months</v>
       </c>
       <c r="H7" t="str">
-        <v>Austin, TX</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I7" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J7" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K7" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="str">
         <v>2024-12-31</v>
@@ -894,34 +913,37 @@
         <v>Series A,Seed</v>
       </c>
       <c r="N7" t="str">
-        <v>Consumer,AI/ML,Web3</v>
+        <v>B2B SaaS,Fintech,Healthtech</v>
       </c>
       <c r="O7" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P7" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q7" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R7" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S7" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T7" t="str">
-        <v>business_plan,video</v>
+        <v>traction_data,pitch_deck</v>
       </c>
       <c r="U7" t="str">
-        <v>0</v>
+        <v>7257</v>
       </c>
       <c r="V7" t="str">
         <v>true</v>
       </c>
       <c r="W7" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X7" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="8">
@@ -941,7 +963,7 @@
         <v>form</v>
       </c>
       <c r="F8" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G8" t="str">
         <v>3 months</v>
@@ -953,37 +975,37 @@
         <v>false</v>
       </c>
       <c r="J8" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K8" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M8" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N8" t="str">
-        <v>B2B SaaS,Consumer,Fintech</v>
+        <v>B2B SaaS,Climate tech,Web3</v>
       </c>
       <c r="O8" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P8" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q8" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R8" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S8" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T8" t="str">
-        <v>traction_data,pitch_deck</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U8" t="str">
         <v>0</v>
@@ -993,6 +1015,9 @@
       </c>
       <c r="W8" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X8" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="9">
@@ -1000,25 +1025,25 @@
         <v>MassChallenge</v>
       </c>
       <c r="B9" t="str">
-        <v>https://masschallenge.capital</v>
+        <v>https://masschallenge.co</v>
       </c>
       <c r="C9" t="str">
-        <v>https://masschallenge.capital/apply</v>
+        <v>https://masschallenge.co/apply</v>
       </c>
       <c r="D9" t="str">
-        <v>apply@masschallenge.capital</v>
+        <v>apply@masschallenge.co</v>
       </c>
       <c r="E9" t="str">
         <v>form</v>
       </c>
       <c r="F9" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G9" t="str">
         <v>3 months</v>
       </c>
       <c r="H9" t="str">
-        <v>Berlin, Germany</v>
+        <v>Singapore</v>
       </c>
       <c r="I9" t="str">
         <v>true</v>
@@ -1027,43 +1052,46 @@
         <v>1-10</v>
       </c>
       <c r="K9" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M9" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N9" t="str">
-        <v>Marketplace,B2B SaaS,Developer tools</v>
+        <v>B2B SaaS,Marketplace,Developer tools</v>
       </c>
       <c r="O9" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="P9" t="str">
-        <v>0%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q9" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R9" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S9" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T9" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>business_plan,pitch_deck</v>
       </c>
       <c r="U9" t="str">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="V9" t="str">
         <v>true</v>
       </c>
       <c r="W9" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X9" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="10">
@@ -1071,13 +1099,13 @@
         <v>SOSV</v>
       </c>
       <c r="B10" t="str">
-        <v>https://sosv.io</v>
+        <v>https://sosv.capital</v>
       </c>
       <c r="C10" t="str">
-        <v>https://sosv.io/apply</v>
+        <v>https://sosv.capital/apply</v>
       </c>
       <c r="D10" t="str">
-        <v>apply@sosv.io</v>
+        <v>apply@sosv.capital</v>
       </c>
       <c r="E10" t="str">
         <v>form</v>
@@ -1086,55 +1114,58 @@
         <v>hybrid</v>
       </c>
       <c r="G10" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H10" t="str">
-        <v>Austin, TX</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I10" t="str">
         <v>false</v>
       </c>
       <c r="J10" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K10" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M10" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N10" t="str">
-        <v>Fintech,B2B SaaS,E-commerce</v>
+        <v>E-commerce,Marketplace,B2B SaaS</v>
       </c>
       <c r="O10" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="P10" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q10" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R10" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S10" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T10" t="str">
-        <v>business_plan,video</v>
+        <v>video,financial_projections</v>
       </c>
       <c r="U10" t="str">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="V10" t="str">
         <v>true</v>
       </c>
       <c r="W10" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X10" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="11">
@@ -1154,13 +1185,13 @@
         <v>form</v>
       </c>
       <c r="F11" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G11" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H11" t="str">
-        <v>Boston, MA</v>
+        <v>London, UK</v>
       </c>
       <c r="I11" t="str">
         <v>true</v>
@@ -1169,43 +1200,46 @@
         <v>1-10</v>
       </c>
       <c r="K11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M11" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N11" t="str">
-        <v>Developer tools,B2B SaaS,Healthtech</v>
+        <v>Consumer,Gaming,B2B SaaS</v>
       </c>
       <c r="O11" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P11" t="str">
-        <v>4-6%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q11" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R11" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S11" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T11" t="str">
-        <v>traction_data,video</v>
+        <v>traction_data,pitch_deck</v>
       </c>
       <c r="U11" t="str">
-        <v>343</v>
+        <v>7235</v>
       </c>
       <c r="V11" t="str">
         <v>true</v>
       </c>
       <c r="W11" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X11" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="12">
@@ -1225,13 +1259,13 @@
         <v>form</v>
       </c>
       <c r="F12" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G12" t="str">
         <v>12 months</v>
       </c>
       <c r="H12" t="str">
-        <v>London, UK</v>
+        <v>New York, NY</v>
       </c>
       <c r="I12" t="str">
         <v>false</v>
@@ -1246,19 +1280,19 @@
         <v>2024-12-31</v>
       </c>
       <c r="M12" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N12" t="str">
-        <v>E-commerce,B2B SaaS,Web3</v>
+        <v>AI/ML,B2B SaaS,Fintech</v>
       </c>
       <c r="O12" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P12" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q12" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R12" t="str">
         <v>&lt;1%</v>
@@ -1267,16 +1301,19 @@
         <v>standard</v>
       </c>
       <c r="T12" t="str">
-        <v>financial_projections,business_plan</v>
+        <v>traction_data,business_plan</v>
       </c>
       <c r="U12" t="str">
-        <v>3847</v>
+        <v>4001</v>
       </c>
       <c r="V12" t="str">
         <v>true</v>
       </c>
       <c r="W12" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X12" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="13">
@@ -1284,19 +1321,19 @@
         <v>Alchemist Accelerator</v>
       </c>
       <c r="B13" t="str">
-        <v>https://alchemistaccelerator.vc</v>
+        <v>https://alchemistaccelerator.com</v>
       </c>
       <c r="C13" t="str">
-        <v>https://alchemistaccelerator.vc/apply</v>
+        <v>https://alchemistaccelerator.com/apply</v>
       </c>
       <c r="D13" t="str">
-        <v>apply@alchemistaccelerator.vc</v>
+        <v>apply@alchemistaccelerator.com</v>
       </c>
       <c r="E13" t="str">
         <v>form</v>
       </c>
       <c r="F13" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G13" t="str">
         <v>6 months</v>
@@ -1311,43 +1348,46 @@
         <v>21-50</v>
       </c>
       <c r="K13" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M13" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N13" t="str">
-        <v>Deep tech,Healthtech,Web3</v>
+        <v>Gaming,Deep tech,Web3</v>
       </c>
       <c r="O13" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="P13" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q13" t="str">
-        <v>50K-100K</v>
+        <v>0-25K</v>
       </c>
       <c r="R13" t="str">
         <v>6-10%</v>
       </c>
       <c r="S13" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T13" t="str">
-        <v>video,business_plan</v>
+        <v>business_plan,financial_projections</v>
       </c>
       <c r="U13" t="str">
-        <v>9834</v>
+        <v>0</v>
       </c>
       <c r="V13" t="str">
         <v>true</v>
       </c>
       <c r="W13" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X13" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="14">
@@ -1355,13 +1395,13 @@
         <v>HAX</v>
       </c>
       <c r="B14" t="str">
-        <v>https://hax.capital</v>
+        <v>https://hax.vc</v>
       </c>
       <c r="C14" t="str">
-        <v>https://hax.capital/apply</v>
+        <v>https://hax.vc/apply</v>
       </c>
       <c r="D14" t="str">
-        <v>apply@hax.capital</v>
+        <v>apply@hax.vc</v>
       </c>
       <c r="E14" t="str">
         <v>form</v>
@@ -1373,25 +1413,25 @@
         <v>12 months</v>
       </c>
       <c r="H14" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I14" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J14" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K14" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M14" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N14" t="str">
-        <v>B2B SaaS,Fintech,E-commerce</v>
+        <v>B2B SaaS,Web3,Fintech</v>
       </c>
       <c r="O14" t="str">
         <v>North America</v>
@@ -1403,22 +1443,25 @@
         <v>100K-250K</v>
       </c>
       <c r="R14" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S14" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T14" t="str">
-        <v>video,business_plan</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U14" t="str">
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="V14" t="str">
         <v>true</v>
       </c>
       <c r="W14" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X14" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="15">
@@ -1438,19 +1481,19 @@
         <v>form</v>
       </c>
       <c r="F15" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G15" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H15" t="str">
-        <v>London, UK</v>
+        <v>Singapore</v>
       </c>
       <c r="I15" t="str">
         <v>false</v>
       </c>
       <c r="J15" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K15" t="str">
         <v>2</v>
@@ -1459,28 +1502,28 @@
         <v>2024-12-31</v>
       </c>
       <c r="M15" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N15" t="str">
-        <v>Consumer,Developer tools,B2B SaaS</v>
+        <v>Deep tech,Marketplace,Web3</v>
       </c>
       <c r="O15" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="P15" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q15" t="str">
         <v>0-25K</v>
       </c>
       <c r="R15" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S15" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T15" t="str">
-        <v>traction_data,video</v>
+        <v>business_plan,traction_data</v>
       </c>
       <c r="U15" t="str">
         <v>0</v>
@@ -1490,6 +1533,9 @@
       </c>
       <c r="W15" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X15" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="16">
@@ -1497,13 +1543,13 @@
         <v>Barclays Accelerator</v>
       </c>
       <c r="B16" t="str">
-        <v>https://barclaysaccelerator.vc</v>
+        <v>https://barclaysaccelerator.capital</v>
       </c>
       <c r="C16" t="str">
-        <v>https://barclaysaccelerator.vc/apply</v>
+        <v>https://barclaysaccelerator.capital/apply</v>
       </c>
       <c r="D16" t="str">
-        <v>apply@barclaysaccelerator.vc</v>
+        <v>apply@barclaysaccelerator.capital</v>
       </c>
       <c r="E16" t="str">
         <v>form</v>
@@ -1512,102 +1558,105 @@
         <v>hybrid</v>
       </c>
       <c r="G16" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H16" t="str">
         <v>Berlin, Germany</v>
       </c>
       <c r="I16" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J16" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K16" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M16" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N16" t="str">
-        <v>Developer tools,Gaming,Web3</v>
+        <v>Marketplace,E-commerce,Developer tools</v>
       </c>
       <c r="O16" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P16" t="str">
-        <v>7-10%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q16" t="str">
-        <v>50K-100K</v>
+        <v>0-25K</v>
       </c>
       <c r="R16" t="str">
         <v>6-10%</v>
       </c>
       <c r="S16" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T16" t="str">
-        <v>video,financial_projections</v>
+        <v>financial_projections,video</v>
       </c>
       <c r="U16" t="str">
-        <v>4391</v>
+        <v>6065</v>
       </c>
       <c r="V16" t="str">
         <v>true</v>
       </c>
       <c r="W16" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X16" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>HAX 2</v>
+        <v>Y Combinator 2</v>
       </c>
       <c r="B17" t="str">
-        <v>https://hax2.io</v>
+        <v>https://ycombinator2.capital</v>
       </c>
       <c r="C17" t="str">
-        <v>https://hax2.io/apply</v>
+        <v>https://ycombinator2.capital/apply</v>
       </c>
       <c r="D17" t="str">
-        <v>apply@hax2.io</v>
+        <v>apply@ycombinator2.capital</v>
       </c>
       <c r="E17" t="str">
         <v>form</v>
       </c>
       <c r="F17" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G17" t="str">
         <v>12 months</v>
       </c>
       <c r="H17" t="str">
-        <v>Berlin, Germany</v>
+        <v>Singapore</v>
       </c>
       <c r="I17" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J17" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K17" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M17" t="str">
-        <v>Series A,Seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N17" t="str">
-        <v>Web3,Gaming,Consumer</v>
+        <v>Climate tech,Marketplace,E-commerce</v>
       </c>
       <c r="O17" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="P17" t="str">
         <v>7-10%</v>
@@ -1616,54 +1665,57 @@
         <v>100K-250K</v>
       </c>
       <c r="R17" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S17" t="str">
         <v>simple</v>
       </c>
       <c r="T17" t="str">
-        <v>pitch_deck,video</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U17" t="str">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="V17" t="str">
         <v>true</v>
       </c>
       <c r="W17" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X17" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Plug and Play 2</v>
+        <v>AngelPad 2</v>
       </c>
       <c r="B18" t="str">
-        <v>https://plugandplay2.com</v>
+        <v>https://angelpad2.io</v>
       </c>
       <c r="C18" t="str">
-        <v>https://plugandplay2.com/apply</v>
+        <v>https://angelpad2.io/apply</v>
       </c>
       <c r="D18" t="str">
-        <v>apply@plugandplay2.com</v>
+        <v>apply@angelpad2.io</v>
       </c>
       <c r="E18" t="str">
         <v>form</v>
       </c>
       <c r="F18" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G18" t="str">
         <v>12 months</v>
       </c>
       <c r="H18" t="str">
-        <v>Seattle, WA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I18" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J18" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K18" t="str">
         <v>3</v>
@@ -1672,140 +1724,146 @@
         <v>2024-12-31</v>
       </c>
       <c r="M18" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N18" t="str">
-        <v>AI/ML,Developer tools,Marketplace</v>
+        <v>B2B SaaS,Fintech,Climate tech</v>
       </c>
       <c r="O18" t="str">
         <v>North America</v>
       </c>
       <c r="P18" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q18" t="str">
-        <v>0-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R18" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S18" t="str">
         <v>simple</v>
       </c>
       <c r="T18" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U18" t="str">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="V18" t="str">
         <v>true</v>
       </c>
       <c r="W18" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X18" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Founder Institute 2</v>
+        <v>Alchemist Accelerator 2</v>
       </c>
       <c r="B19" t="str">
-        <v>https://founderinstitute2.io</v>
+        <v>https://alchemistaccelerator.vc</v>
       </c>
       <c r="C19" t="str">
-        <v>https://founderinstitute2.io/apply</v>
+        <v>https://alchemistaccelerator.vc/apply</v>
       </c>
       <c r="D19" t="str">
-        <v>apply@founderinstitute2.io</v>
+        <v>apply@alchemistaccelerator.vc</v>
       </c>
       <c r="E19" t="str">
         <v>form</v>
       </c>
       <c r="F19" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G19" t="str">
         <v>3 months</v>
       </c>
       <c r="H19" t="str">
-        <v>Seattle, WA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I19" t="str">
         <v>false</v>
       </c>
       <c r="J19" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K19" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M19" t="str">
-        <v>Seed,Series A</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N19" t="str">
-        <v>Gaming,Healthtech,Developer tools</v>
+        <v>Web3,Fintech,Marketplace</v>
       </c>
       <c r="O19" t="str">
         <v>Global</v>
       </c>
       <c r="P19" t="str">
-        <v>0%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q19" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R19" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S19" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T19" t="str">
-        <v>pitch_deck,video</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U19" t="str">
-        <v>1832</v>
+        <v>9234</v>
       </c>
       <c r="V19" t="str">
         <v>true</v>
       </c>
       <c r="W19" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X19" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Barclays Accelerator 2</v>
+        <v>Plug and Play 2</v>
       </c>
       <c r="B20" t="str">
-        <v>https://barclaysaccelerator2.io</v>
+        <v>https://plugandplay2.io</v>
       </c>
       <c r="C20" t="str">
-        <v>https://barclaysaccelerator2.io/apply</v>
+        <v>https://plugandplay2.io/apply</v>
       </c>
       <c r="D20" t="str">
-        <v>apply@barclaysaccelerator2.io</v>
+        <v>apply@plugandplay2.io</v>
       </c>
       <c r="E20" t="str">
         <v>form</v>
       </c>
       <c r="F20" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G20" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H20" t="str">
-        <v>London, UK</v>
+        <v>New York, NY</v>
       </c>
       <c r="I20" t="str">
         <v>false</v>
       </c>
       <c r="J20" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K20" t="str">
         <v>3</v>
@@ -1814,51 +1872,54 @@
         <v>2024-12-31</v>
       </c>
       <c r="M20" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N20" t="str">
-        <v>Consumer,Gaming,Climate tech</v>
+        <v>Web3,E-commerce,Gaming</v>
       </c>
       <c r="O20" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="P20" t="str">
-        <v>1-3%</v>
+        <v>0%</v>
       </c>
       <c r="Q20" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R20" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S20" t="str">
         <v>standard</v>
       </c>
       <c r="T20" t="str">
-        <v>traction_data,video</v>
+        <v>traction_data,financial_projections</v>
       </c>
       <c r="U20" t="str">
-        <v>5674</v>
+        <v>0</v>
       </c>
       <c r="V20" t="str">
         <v>true</v>
       </c>
       <c r="W20" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X20" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Plug and Play 3</v>
+        <v>Alchemist Accelerator 3</v>
       </c>
       <c r="B21" t="str">
-        <v>https://plugandplay3.io</v>
+        <v>https://alchemistaccelerator.io</v>
       </c>
       <c r="C21" t="str">
-        <v>https://plugandplay3.io/apply</v>
+        <v>https://alchemistaccelerator.io/apply</v>
       </c>
       <c r="D21" t="str">
-        <v>apply@plugandplay3.io</v>
+        <v>apply@alchemistaccelerator.io</v>
       </c>
       <c r="E21" t="str">
         <v>form</v>
@@ -1870,10 +1931,10 @@
         <v>6 months</v>
       </c>
       <c r="H21" t="str">
-        <v>Austin, TX</v>
+        <v>New York, NY</v>
       </c>
       <c r="I21" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J21" t="str">
         <v>21-50</v>
@@ -1888,25 +1949,25 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N21" t="str">
-        <v>Marketplace,E-commerce,Developer tools</v>
+        <v>Web3,Developer tools,Fintech</v>
       </c>
       <c r="O21" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="P21" t="str">
-        <v>1-3%</v>
+        <v>0%</v>
       </c>
       <c r="Q21" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R21" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S21" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T21" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U21" t="str">
         <v>0</v>
@@ -1917,55 +1978,58 @@
       <c r="W21" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X21" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>500 Startups 2</v>
+        <v>HAX 2</v>
       </c>
       <c r="B22" t="str">
-        <v>https://500startups2.vc</v>
+        <v>https://hax2.capital</v>
       </c>
       <c r="C22" t="str">
-        <v>https://500startups2.vc/apply</v>
+        <v>https://hax2.capital/apply</v>
       </c>
       <c r="D22" t="str">
-        <v>apply@500startups2.vc</v>
+        <v>apply@hax2.capital</v>
       </c>
       <c r="E22" t="str">
         <v>form</v>
       </c>
       <c r="F22" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G22" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H22" t="str">
-        <v>Berlin, Germany</v>
+        <v>London, UK</v>
       </c>
       <c r="I22" t="str">
         <v>false</v>
       </c>
       <c r="J22" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K22" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M22" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N22" t="str">
-        <v>B2B SaaS,Deep tech,Climate tech</v>
+        <v>Deep tech,Climate tech,Web3</v>
       </c>
       <c r="O22" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="P22" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q22" t="str">
         <v>100K-250K</v>
@@ -1977,42 +2041,45 @@
         <v>simple</v>
       </c>
       <c r="T22" t="str">
-        <v>pitch_deck,video</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U22" t="str">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="V22" t="str">
         <v>true</v>
       </c>
       <c r="W22" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X22" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Barclays Accelerator 3</v>
+        <v>Plug and Play 3</v>
       </c>
       <c r="B23" t="str">
-        <v>https://barclaysaccelerator3.com</v>
+        <v>https://plugandplay3.capital</v>
       </c>
       <c r="C23" t="str">
-        <v>https://barclaysaccelerator3.com/apply</v>
+        <v>https://plugandplay3.capital/apply</v>
       </c>
       <c r="D23" t="str">
-        <v>apply@barclaysaccelerator3.com</v>
+        <v>apply@plugandplay3.capital</v>
       </c>
       <c r="E23" t="str">
         <v>form</v>
       </c>
       <c r="F23" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G23" t="str">
         <v>12 months</v>
       </c>
       <c r="H23" t="str">
-        <v>San Francisco, CA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I23" t="str">
         <v>false</v>
@@ -2021,34 +2088,34 @@
         <v>1-10</v>
       </c>
       <c r="K23" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M23" t="str">
-        <v>Seed,Series A</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N23" t="str">
-        <v>Web3,B2B SaaS,Healthtech</v>
+        <v>Gaming,B2B SaaS,Fintech</v>
       </c>
       <c r="O23" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P23" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q23" t="str">
         <v>50K-100K</v>
       </c>
       <c r="R23" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S23" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T23" t="str">
-        <v>traction_data,video</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U23" t="str">
         <v>0</v>
@@ -2059,19 +2126,22 @@
       <c r="W23" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X23" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>MassChallenge 2</v>
+        <v>SOSV 2</v>
       </c>
       <c r="B24" t="str">
-        <v>https://masschallenge2.com</v>
+        <v>https://sosv2.capital</v>
       </c>
       <c r="C24" t="str">
-        <v>https://masschallenge2.com/apply</v>
+        <v>https://sosv2.capital/apply</v>
       </c>
       <c r="D24" t="str">
-        <v>apply@masschallenge2.com</v>
+        <v>apply@sosv2.capital</v>
       </c>
       <c r="E24" t="str">
         <v>form</v>
@@ -2083,7 +2153,7 @@
         <v>3 months</v>
       </c>
       <c r="H24" t="str">
-        <v>Seattle, WA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I24" t="str">
         <v>false</v>
@@ -2092,7 +2162,7 @@
         <v>21-50</v>
       </c>
       <c r="K24" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" t="str">
         <v>2024-12-31</v>
@@ -2101,134 +2171,140 @@
         <v>Pre-seed,Seed</v>
       </c>
       <c r="N24" t="str">
-        <v>Gaming,Fintech,Developer tools</v>
+        <v>Marketplace,Climate tech,Gaming</v>
       </c>
       <c r="O24" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="P24" t="str">
-        <v>7-10%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q24" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R24" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S24" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T24" t="str">
-        <v>traction_data,video</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U24" t="str">
-        <v>0</v>
+        <v>5227</v>
       </c>
       <c r="V24" t="str">
         <v>true</v>
       </c>
       <c r="W24" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X24" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>RGA Accelerator 2</v>
+        <v>Entrepreneurs Roundtable Accelerator 2</v>
       </c>
       <c r="B25" t="str">
-        <v>https://rgaaccelerator2.capital</v>
+        <v>https://entrepreneursroundta.com</v>
       </c>
       <c r="C25" t="str">
-        <v>https://rgaaccelerator2.capital/apply</v>
+        <v>https://entrepreneursroundta.com/apply</v>
       </c>
       <c r="D25" t="str">
-        <v>apply@rgaaccelerator2.capital</v>
+        <v>apply@entrepreneursroundta.com</v>
       </c>
       <c r="E25" t="str">
         <v>form</v>
       </c>
       <c r="F25" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G25" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H25" t="str">
-        <v>San Francisco, CA</v>
+        <v>New York, NY</v>
       </c>
       <c r="I25" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J25" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K25" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M25" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N25" t="str">
-        <v>E-commerce,Deep tech,Web3</v>
+        <v>B2B SaaS,E-commerce,Gaming</v>
       </c>
       <c r="O25" t="str">
-        <v>Asia</v>
+        <v>Global</v>
       </c>
       <c r="P25" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q25" t="str">
         <v>0-25K</v>
       </c>
       <c r="R25" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S25" t="str">
         <v>simple</v>
       </c>
       <c r="T25" t="str">
-        <v>pitch_deck,traction_data</v>
+        <v>financial_projections,video</v>
       </c>
       <c r="U25" t="str">
-        <v>0</v>
+        <v>3842</v>
       </c>
       <c r="V25" t="str">
         <v>true</v>
       </c>
       <c r="W25" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X25" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Founder Institute 3</v>
+        <v>RGA Accelerator 2</v>
       </c>
       <c r="B26" t="str">
-        <v>https://founderinstitute3.com</v>
+        <v>https://rgaaccelerator2.com</v>
       </c>
       <c r="C26" t="str">
-        <v>https://founderinstitute3.com/apply</v>
+        <v>https://rgaaccelerator2.com/apply</v>
       </c>
       <c r="D26" t="str">
-        <v>apply@founderinstitute3.com</v>
+        <v>apply@rgaaccelerator2.com</v>
       </c>
       <c r="E26" t="str">
         <v>form</v>
       </c>
       <c r="F26" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G26" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H26" t="str">
-        <v>Boston, MA</v>
+        <v>Singapore</v>
       </c>
       <c r="I26" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J26" t="str">
         <v>11-20</v>
@@ -2240,10 +2316,10 @@
         <v>2024-12-31</v>
       </c>
       <c r="M26" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N26" t="str">
-        <v>Healthtech,AI/ML,Consumer</v>
+        <v>Deep tech,B2B SaaS,Healthtech</v>
       </c>
       <c r="O26" t="str">
         <v>North America</v>
@@ -2255,113 +2331,119 @@
         <v>50K-100K</v>
       </c>
       <c r="R26" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S26" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T26" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>financial_projections,pitch_deck</v>
       </c>
       <c r="U26" t="str">
-        <v>2583</v>
+        <v>8890</v>
       </c>
       <c r="V26" t="str">
         <v>true</v>
       </c>
       <c r="W26" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X26" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Techstars 2</v>
+        <v>Founder Institute 2</v>
       </c>
       <c r="B27" t="str">
-        <v>https://techstars2.co</v>
+        <v>https://founderinstitute2.io</v>
       </c>
       <c r="C27" t="str">
-        <v>https://techstars2.co/apply</v>
+        <v>https://founderinstitute2.io/apply</v>
       </c>
       <c r="D27" t="str">
-        <v>apply@techstars2.co</v>
+        <v>apply@founderinstitute2.io</v>
       </c>
       <c r="E27" t="str">
         <v>form</v>
       </c>
       <c r="F27" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G27" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H27" t="str">
-        <v>Austin, TX</v>
+        <v>New York, NY</v>
       </c>
       <c r="I27" t="str">
         <v>false</v>
       </c>
       <c r="J27" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K27" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M27" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N27" t="str">
-        <v>Healthtech,Fintech,AI/ML</v>
+        <v>B2B SaaS,Developer tools,E-commerce</v>
       </c>
       <c r="O27" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="P27" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q27" t="str">
         <v>50K-100K</v>
       </c>
       <c r="R27" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S27" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T27" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U27" t="str">
-        <v>7946</v>
+        <v>0</v>
       </c>
       <c r="V27" t="str">
         <v>true</v>
       </c>
       <c r="W27" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X27" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Techstars 3</v>
+        <v>Plug and Play 4</v>
       </c>
       <c r="B28" t="str">
-        <v>https://techstars3.vc</v>
+        <v>https://plugandplay4.capital</v>
       </c>
       <c r="C28" t="str">
-        <v>https://techstars3.vc/apply</v>
+        <v>https://plugandplay4.capital/apply</v>
       </c>
       <c r="D28" t="str">
-        <v>apply@techstars3.vc</v>
+        <v>apply@plugandplay4.capital</v>
       </c>
       <c r="E28" t="str">
         <v>form</v>
       </c>
       <c r="F28" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G28" t="str">
         <v>12 months</v>
@@ -2370,81 +2452,84 @@
         <v>Singapore</v>
       </c>
       <c r="I28" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J28" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K28" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M28" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N28" t="str">
-        <v>Gaming,B2B SaaS,Developer tools</v>
+        <v>Marketplace,Fintech,Gaming</v>
       </c>
       <c r="O28" t="str">
-        <v>Global</v>
+        <v>Europe</v>
       </c>
       <c r="P28" t="str">
         <v>1-3%</v>
       </c>
       <c r="Q28" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R28" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S28" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T28" t="str">
-        <v>pitch_deck,video</v>
+        <v>traction_data,business_plan</v>
       </c>
       <c r="U28" t="str">
-        <v>2776</v>
+        <v>2416</v>
       </c>
       <c r="V28" t="str">
         <v>true</v>
       </c>
       <c r="W28" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X28" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Barclays Accelerator 4</v>
+        <v>Entrepreneurs Roundtable Accelerator 3</v>
       </c>
       <c r="B29" t="str">
-        <v>https://barclaysaccelerator4.capital</v>
+        <v>https://entrepreneursroundta.co</v>
       </c>
       <c r="C29" t="str">
-        <v>https://barclaysaccelerator4.capital/apply</v>
+        <v>https://entrepreneursroundta.co/apply</v>
       </c>
       <c r="D29" t="str">
-        <v>apply@barclaysaccelerator4.capital</v>
+        <v>apply@entrepreneursroundta.co</v>
       </c>
       <c r="E29" t="str">
         <v>form</v>
       </c>
       <c r="F29" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G29" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H29" t="str">
-        <v>Singapore</v>
+        <v>London, UK</v>
       </c>
       <c r="I29" t="str">
         <v>false</v>
       </c>
       <c r="J29" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K29" t="str">
         <v>3</v>
@@ -2456,13 +2541,13 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N29" t="str">
-        <v>E-commerce,Fintech,Developer tools</v>
+        <v>Fintech,AI/ML,Gaming</v>
       </c>
       <c r="O29" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="P29" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q29" t="str">
         <v>100K-250K</v>
@@ -2474,30 +2559,33 @@
         <v>comprehensive</v>
       </c>
       <c r="T29" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>traction_data,video</v>
       </c>
       <c r="U29" t="str">
-        <v>901</v>
+        <v>2381</v>
       </c>
       <c r="V29" t="str">
         <v>true</v>
       </c>
       <c r="W29" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X29" t="str">
+        <v>FREE</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Entrepreneurs Roundtable Accelerator 2</v>
+        <v>SOSV 3</v>
       </c>
       <c r="B30" t="str">
-        <v>https://entrepreneursroundta.com</v>
+        <v>https://sosv3.co</v>
       </c>
       <c r="C30" t="str">
-        <v>https://entrepreneursroundta.com/apply</v>
+        <v>https://sosv3.co/apply</v>
       </c>
       <c r="D30" t="str">
-        <v>apply@entrepreneursroundta.com</v>
+        <v>apply@sosv3.co</v>
       </c>
       <c r="E30" t="str">
         <v>form</v>
@@ -2506,10 +2594,10 @@
         <v>remote</v>
       </c>
       <c r="G30" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H30" t="str">
-        <v>Austin, TX</v>
+        <v>Singapore</v>
       </c>
       <c r="I30" t="str">
         <v>true</v>
@@ -2518,34 +2606,34 @@
         <v>1-10</v>
       </c>
       <c r="K30" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M30" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N30" t="str">
-        <v>Fintech,E-commerce,Developer tools</v>
+        <v>Climate tech,B2B SaaS,Consumer</v>
       </c>
       <c r="O30" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="P30" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q30" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R30" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S30" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T30" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U30" t="str">
         <v>0</v>
@@ -2556,37 +2644,40 @@
       <c r="W30" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X30" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>RGA Accelerator 3</v>
+        <v>Startupbootcamp 2</v>
       </c>
       <c r="B31" t="str">
-        <v>https://rgaaccelerator3.capital</v>
+        <v>https://startupbootcamp2.io</v>
       </c>
       <c r="C31" t="str">
-        <v>https://rgaaccelerator3.capital/apply</v>
+        <v>https://startupbootcamp2.io/apply</v>
       </c>
       <c r="D31" t="str">
-        <v>apply@rgaaccelerator3.capital</v>
+        <v>apply@startupbootcamp2.io</v>
       </c>
       <c r="E31" t="str">
         <v>form</v>
       </c>
       <c r="F31" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G31" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H31" t="str">
-        <v>New York, NY</v>
+        <v>Singapore</v>
       </c>
       <c r="I31" t="str">
         <v>true</v>
       </c>
       <c r="J31" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K31" t="str">
         <v>4</v>
@@ -2595,28 +2686,28 @@
         <v>2024-12-31</v>
       </c>
       <c r="M31" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N31" t="str">
-        <v>Developer tools,Web3,Fintech</v>
+        <v>Consumer,E-commerce,B2B SaaS</v>
       </c>
       <c r="O31" t="str">
-        <v>North America</v>
+        <v>EMEA</v>
       </c>
       <c r="P31" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q31" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R31" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S31" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T31" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>business_plan,pitch_deck</v>
       </c>
       <c r="U31" t="str">
         <v>0</v>
@@ -2627,49 +2718,52 @@
       <c r="W31" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X31" t="str">
+        <v>FREE</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Techstars 4</v>
+        <v>HAX 3</v>
       </c>
       <c r="B32" t="str">
-        <v>https://techstars4.io</v>
+        <v>https://hax3.co</v>
       </c>
       <c r="C32" t="str">
-        <v>https://techstars4.io/apply</v>
+        <v>https://hax3.co/apply</v>
       </c>
       <c r="D32" t="str">
-        <v>apply@techstars4.io</v>
+        <v>apply@hax3.co</v>
       </c>
       <c r="E32" t="str">
         <v>form</v>
       </c>
       <c r="F32" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G32" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H32" t="str">
-        <v>London, UK</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I32" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J32" t="str">
         <v>11-20</v>
       </c>
       <c r="K32" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M32" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N32" t="str">
-        <v>B2B SaaS,AI/ML,Developer tools</v>
+        <v>B2B SaaS,E-commerce,Consumer</v>
       </c>
       <c r="O32" t="str">
         <v>North America</v>
@@ -2678,39 +2772,42 @@
         <v>7-10%</v>
       </c>
       <c r="Q32" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R32" t="str">
         <v>6-10%</v>
       </c>
       <c r="S32" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T32" t="str">
-        <v>traction_data,pitch_deck</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U32" t="str">
-        <v>5063</v>
+        <v>8308</v>
       </c>
       <c r="V32" t="str">
         <v>true</v>
       </c>
       <c r="W32" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X32" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Seedcamp 3</v>
+        <v>HAX 4</v>
       </c>
       <c r="B33" t="str">
-        <v>https://seedcamp3.io</v>
+        <v>https://hax4.capital</v>
       </c>
       <c r="C33" t="str">
-        <v>https://seedcamp3.io/apply</v>
+        <v>https://hax4.capital/apply</v>
       </c>
       <c r="D33" t="str">
-        <v>apply@seedcamp3.io</v>
+        <v>apply@hax4.capital</v>
       </c>
       <c r="E33" t="str">
         <v>form</v>
@@ -2719,69 +2816,72 @@
         <v>hybrid</v>
       </c>
       <c r="G33" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H33" t="str">
-        <v>Boston, MA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="I33" t="str">
         <v>true</v>
       </c>
       <c r="J33" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K33" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L33" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M33" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N33" t="str">
-        <v>B2B SaaS,E-commerce,Consumer</v>
+        <v>Deep tech,Climate tech,B2B SaaS</v>
       </c>
       <c r="O33" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P33" t="str">
-        <v>7-10%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q33" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R33" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S33" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T33" t="str">
-        <v>video,financial_projections</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U33" t="str">
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="V33" t="str">
         <v>true</v>
       </c>
       <c r="W33" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X33" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>500 Startups 3</v>
+        <v>Barclays Accelerator 3</v>
       </c>
       <c r="B34" t="str">
-        <v>https://500startups3.com</v>
+        <v>https://barclaysaccelerator3.co</v>
       </c>
       <c r="C34" t="str">
-        <v>https://500startups3.com/apply</v>
+        <v>https://barclaysaccelerator3.co/apply</v>
       </c>
       <c r="D34" t="str">
-        <v>apply@500startups3.com</v>
+        <v>apply@barclaysaccelerator3.co</v>
       </c>
       <c r="E34" t="str">
         <v>form</v>
@@ -2790,16 +2890,16 @@
         <v>hybrid</v>
       </c>
       <c r="G34" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H34" t="str">
-        <v>Boston, MA</v>
+        <v>London, UK</v>
       </c>
       <c r="I34" t="str">
         <v>false</v>
       </c>
       <c r="J34" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K34" t="str">
         <v>4</v>
@@ -2808,63 +2908,66 @@
         <v>2024-12-31</v>
       </c>
       <c r="M34" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N34" t="str">
-        <v>B2B SaaS,Fintech,Healthtech</v>
+        <v>Deep tech,Climate tech,Gaming</v>
       </c>
       <c r="O34" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P34" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q34" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R34" t="str">
         <v>1-5%</v>
       </c>
       <c r="S34" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T34" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>pitch_deck,traction_data</v>
       </c>
       <c r="U34" t="str">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="V34" t="str">
         <v>true</v>
       </c>
       <c r="W34" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X34" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>RGA Accelerator 4</v>
+        <v>Entrepreneurs Roundtable Accelerator 4</v>
       </c>
       <c r="B35" t="str">
-        <v>https://rgaaccelerator4.capital</v>
+        <v>https://entrepreneursroundta.co</v>
       </c>
       <c r="C35" t="str">
-        <v>https://rgaaccelerator4.capital/apply</v>
+        <v>https://entrepreneursroundta.co/apply</v>
       </c>
       <c r="D35" t="str">
-        <v>apply@rgaaccelerator4.capital</v>
+        <v>apply@entrepreneursroundta.co</v>
       </c>
       <c r="E35" t="str">
         <v>form</v>
       </c>
       <c r="F35" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G35" t="str">
         <v>12 months</v>
       </c>
       <c r="H35" t="str">
-        <v>Seattle, WA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I35" t="str">
         <v>false</v>
@@ -2879,13 +2982,13 @@
         <v>2024-12-31</v>
       </c>
       <c r="M35" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N35" t="str">
-        <v>Web3,B2B SaaS,Fintech</v>
+        <v>B2B SaaS,Consumer,Marketplace</v>
       </c>
       <c r="O35" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P35" t="str">
         <v>4-6%</v>
@@ -2894,36 +2997,39 @@
         <v>50K-100K</v>
       </c>
       <c r="R35" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S35" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T35" t="str">
         <v>financial_projections,business_plan</v>
       </c>
       <c r="U35" t="str">
-        <v>0</v>
+        <v>6820</v>
       </c>
       <c r="V35" t="str">
         <v>true</v>
       </c>
       <c r="W35" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X35" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>RGA Accelerator 5</v>
+        <v>Techstars 3</v>
       </c>
       <c r="B36" t="str">
-        <v>https://rgaaccelerator5.co</v>
+        <v>https://techstars3.io</v>
       </c>
       <c r="C36" t="str">
-        <v>https://rgaaccelerator5.co/apply</v>
+        <v>https://techstars3.io/apply</v>
       </c>
       <c r="D36" t="str">
-        <v>apply@rgaaccelerator5.co</v>
+        <v>apply@techstars3.io</v>
       </c>
       <c r="E36" t="str">
         <v>form</v>
@@ -2938,75 +3044,78 @@
         <v>New York, NY</v>
       </c>
       <c r="I36" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J36" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K36" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M36" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N36" t="str">
-        <v>E-commerce,AI/ML,B2B SaaS</v>
+        <v>B2B SaaS,E-commerce,Marketplace</v>
       </c>
       <c r="O36" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P36" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q36" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R36" t="str">
         <v>1-5%</v>
       </c>
       <c r="S36" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T36" t="str">
-        <v>business_plan,financial_projections</v>
+        <v>video,financial_projections</v>
       </c>
       <c r="U36" t="str">
-        <v>0</v>
+        <v>5095</v>
       </c>
       <c r="V36" t="str">
         <v>true</v>
       </c>
       <c r="W36" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X36" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>RGA Accelerator 6</v>
+        <v>Barclays Accelerator 4</v>
       </c>
       <c r="B37" t="str">
-        <v>https://rgaaccelerator6.co</v>
+        <v>https://barclaysaccelerator4.io</v>
       </c>
       <c r="C37" t="str">
-        <v>https://rgaaccelerator6.co/apply</v>
+        <v>https://barclaysaccelerator4.io/apply</v>
       </c>
       <c r="D37" t="str">
-        <v>apply@rgaaccelerator6.co</v>
+        <v>apply@barclaysaccelerator4.io</v>
       </c>
       <c r="E37" t="str">
         <v>form</v>
       </c>
       <c r="F37" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G37" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H37" t="str">
-        <v>Seattle, WA</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I37" t="str">
         <v>false</v>
@@ -3015,128 +3124,134 @@
         <v>21-50</v>
       </c>
       <c r="K37" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M37" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N37" t="str">
-        <v>AI/ML,E-commerce,Developer tools</v>
+        <v>B2B SaaS,Gaming,Web3</v>
       </c>
       <c r="O37" t="str">
-        <v>Global</v>
+        <v>North America</v>
       </c>
       <c r="P37" t="str">
         <v>7-10%</v>
       </c>
       <c r="Q37" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R37" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S37" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T37" t="str">
-        <v>video,financial_projections</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U37" t="str">
-        <v>3276</v>
+        <v>2130</v>
       </c>
       <c r="V37" t="str">
         <v>true</v>
       </c>
       <c r="W37" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X37" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SOSV 3</v>
+        <v>MassChallenge 3</v>
       </c>
       <c r="B38" t="str">
-        <v>https://sosv3.capital</v>
+        <v>https://masschallenge3.co</v>
       </c>
       <c r="C38" t="str">
-        <v>https://sosv3.capital/apply</v>
+        <v>https://masschallenge3.co/apply</v>
       </c>
       <c r="D38" t="str">
-        <v>apply@sosv3.capital</v>
+        <v>apply@masschallenge3.co</v>
       </c>
       <c r="E38" t="str">
         <v>form</v>
       </c>
       <c r="F38" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G38" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H38" t="str">
-        <v>New York, NY</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I38" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J38" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K38" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M38" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N38" t="str">
-        <v>Web3,B2B SaaS,Consumer</v>
+        <v>Web3,B2B SaaS,Healthtech</v>
       </c>
       <c r="O38" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="P38" t="str">
         <v>0%</v>
       </c>
       <c r="Q38" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R38" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S38" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T38" t="str">
-        <v>traction_data,video</v>
+        <v>pitch_deck,financial_projections</v>
       </c>
       <c r="U38" t="str">
-        <v>3921</v>
+        <v>1248</v>
       </c>
       <c r="V38" t="str">
         <v>true</v>
       </c>
       <c r="W38" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X38" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>RGA Accelerator 7</v>
+        <v>HAX 5</v>
       </c>
       <c r="B39" t="str">
-        <v>https://rgaaccelerator7.co</v>
+        <v>https://hax5.capital</v>
       </c>
       <c r="C39" t="str">
-        <v>https://rgaaccelerator7.co/apply</v>
+        <v>https://hax5.capital/apply</v>
       </c>
       <c r="D39" t="str">
-        <v>apply@rgaaccelerator7.co</v>
+        <v>apply@hax5.capital</v>
       </c>
       <c r="E39" t="str">
         <v>form</v>
@@ -3151,40 +3266,40 @@
         <v>Singapore</v>
       </c>
       <c r="I39" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J39" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K39" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M39" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N39" t="str">
-        <v>Consumer,AI/ML,Fintech</v>
+        <v>Deep tech,Healthtech,B2B SaaS</v>
       </c>
       <c r="O39" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P39" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q39" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R39" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S39" t="str">
         <v>standard</v>
       </c>
       <c r="T39" t="str">
-        <v>business_plan,financial_projections</v>
+        <v>pitch_deck,traction_data</v>
       </c>
       <c r="U39" t="str">
         <v>0</v>
@@ -3195,19 +3310,22 @@
       <c r="W39" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X39" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>AngelPad 3</v>
+        <v>Entrepreneurs Roundtable Accelerator 5</v>
       </c>
       <c r="B40" t="str">
-        <v>https://angelpad3.capital</v>
+        <v>https://entrepreneursroundta.capital</v>
       </c>
       <c r="C40" t="str">
-        <v>https://angelpad3.capital/apply</v>
+        <v>https://entrepreneursroundta.capital/apply</v>
       </c>
       <c r="D40" t="str">
-        <v>apply@angelpad3.capital</v>
+        <v>apply@entrepreneursroundta.capital</v>
       </c>
       <c r="E40" t="str">
         <v>form</v>
@@ -3216,10 +3334,10 @@
         <v>remote</v>
       </c>
       <c r="G40" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H40" t="str">
-        <v>New York, NY</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I40" t="str">
         <v>false</v>
@@ -3228,75 +3346,78 @@
         <v>11-20</v>
       </c>
       <c r="K40" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M40" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N40" t="str">
-        <v>Climate tech,Deep tech,B2B SaaS</v>
+        <v>Gaming,B2B SaaS,Fintech</v>
       </c>
       <c r="O40" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P40" t="str">
         <v>0%</v>
       </c>
       <c r="Q40" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R40" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S40" t="str">
         <v>standard</v>
       </c>
       <c r="T40" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>business_plan,video</v>
       </c>
       <c r="U40" t="str">
-        <v>0</v>
+        <v>9758</v>
       </c>
       <c r="V40" t="str">
         <v>true</v>
       </c>
       <c r="W40" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X40" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>MassChallenge 3</v>
+        <v>SOSV 4</v>
       </c>
       <c r="B41" t="str">
-        <v>https://masschallenge3.capital</v>
+        <v>https://sosv4.capital</v>
       </c>
       <c r="C41" t="str">
-        <v>https://masschallenge3.capital/apply</v>
+        <v>https://sosv4.capital/apply</v>
       </c>
       <c r="D41" t="str">
-        <v>apply@masschallenge3.capital</v>
+        <v>apply@sosv4.capital</v>
       </c>
       <c r="E41" t="str">
         <v>form</v>
       </c>
       <c r="F41" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G41" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H41" t="str">
-        <v>Seattle, WA</v>
+        <v>Singapore</v>
       </c>
       <c r="I41" t="str">
         <v>false</v>
       </c>
       <c r="J41" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K41" t="str">
         <v>4</v>
@@ -3305,90 +3426,93 @@
         <v>2024-12-31</v>
       </c>
       <c r="M41" t="str">
-        <v>Seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N41" t="str">
-        <v>E-commerce,AI/ML,Consumer</v>
+        <v>B2B SaaS,E-commerce,AI/ML</v>
       </c>
       <c r="O41" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="P41" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q41" t="str">
-        <v>50K-100K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R41" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S41" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T41" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>business_plan,traction_data</v>
       </c>
       <c r="U41" t="str">
-        <v>8628</v>
+        <v>8099</v>
       </c>
       <c r="V41" t="str">
         <v>true</v>
       </c>
       <c r="W41" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X41" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Alchemist Accelerator 3</v>
+        <v>Startupbootcamp 3</v>
       </c>
       <c r="B42" t="str">
-        <v>https://alchemistaccelerator.vc</v>
+        <v>https://startupbootcamp3.co</v>
       </c>
       <c r="C42" t="str">
-        <v>https://alchemistaccelerator.vc/apply</v>
+        <v>https://startupbootcamp3.co/apply</v>
       </c>
       <c r="D42" t="str">
-        <v>apply@alchemistaccelerator.vc</v>
+        <v>apply@startupbootcamp3.co</v>
       </c>
       <c r="E42" t="str">
         <v>form</v>
       </c>
       <c r="F42" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G42" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H42" t="str">
-        <v>Austin, TX</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I42" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J42" t="str">
         <v>11-20</v>
       </c>
       <c r="K42" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M42" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N42" t="str">
-        <v>B2B SaaS,E-commerce,AI/ML</v>
+        <v>AI/ML,Deep tech,Climate tech</v>
       </c>
       <c r="O42" t="str">
         <v>North America</v>
       </c>
       <c r="P42" t="str">
-        <v>0%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q42" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R42" t="str">
         <v>6-10%</v>
@@ -3397,78 +3521,81 @@
         <v>simple</v>
       </c>
       <c r="T42" t="str">
-        <v>traction_data,pitch_deck</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U42" t="str">
-        <v>3766</v>
+        <v>2106</v>
       </c>
       <c r="V42" t="str">
         <v>true</v>
       </c>
       <c r="W42" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X42" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Founder Institute 4</v>
+        <v>Entrepreneurs Roundtable Accelerator 6</v>
       </c>
       <c r="B43" t="str">
-        <v>https://founderinstitute4.capital</v>
+        <v>https://entrepreneursroundta.com</v>
       </c>
       <c r="C43" t="str">
-        <v>https://founderinstitute4.capital/apply</v>
+        <v>https://entrepreneursroundta.com/apply</v>
       </c>
       <c r="D43" t="str">
-        <v>apply@founderinstitute4.capital</v>
+        <v>apply@entrepreneursroundta.com</v>
       </c>
       <c r="E43" t="str">
         <v>form</v>
       </c>
       <c r="F43" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G43" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H43" t="str">
-        <v>Seattle, WA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I43" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J43" t="str">
         <v>1-10</v>
       </c>
       <c r="K43" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M43" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N43" t="str">
-        <v>B2B SaaS,Healthtech,Web3</v>
+        <v>E-commerce,B2B SaaS,Gaming</v>
       </c>
       <c r="O43" t="str">
-        <v>Europe</v>
+        <v>EMEA</v>
       </c>
       <c r="P43" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q43" t="str">
-        <v>25K-50K</v>
+        <v>0-25K</v>
       </c>
       <c r="R43" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S43" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T43" t="str">
-        <v>business_plan,video</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U43" t="str">
         <v>0</v>
@@ -3479,138 +3606,144 @@
       <c r="W43" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X43" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Barclays Accelerator 5</v>
+        <v>Startupbootcamp 4</v>
       </c>
       <c r="B44" t="str">
-        <v>https://barclaysaccelerator5.vc</v>
+        <v>https://startupbootcamp4.capital</v>
       </c>
       <c r="C44" t="str">
-        <v>https://barclaysaccelerator5.vc/apply</v>
+        <v>https://startupbootcamp4.capital/apply</v>
       </c>
       <c r="D44" t="str">
-        <v>apply@barclaysaccelerator5.vc</v>
+        <v>apply@startupbootcamp4.capital</v>
       </c>
       <c r="E44" t="str">
         <v>form</v>
       </c>
       <c r="F44" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G44" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H44" t="str">
-        <v>Boston, MA</v>
+        <v>Singapore</v>
       </c>
       <c r="I44" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J44" t="str">
         <v>11-20</v>
       </c>
       <c r="K44" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M44" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N44" t="str">
-        <v>E-commerce,Climate tech,Web3</v>
+        <v>E-commerce,Developer tools,Gaming</v>
       </c>
       <c r="O44" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="P44" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q44" t="str">
-        <v>25K-50K</v>
+        <v>0-25K</v>
       </c>
       <c r="R44" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S44" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T44" t="str">
         <v>business_plan,pitch_deck</v>
       </c>
       <c r="U44" t="str">
-        <v>9535</v>
+        <v>0</v>
       </c>
       <c r="V44" t="str">
         <v>true</v>
       </c>
       <c r="W44" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X44" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Plug and Play 4</v>
+        <v>Y Combinator 3</v>
       </c>
       <c r="B45" t="str">
-        <v>https://plugandplay4.co</v>
+        <v>https://ycombinator3.com</v>
       </c>
       <c r="C45" t="str">
-        <v>https://plugandplay4.co/apply</v>
+        <v>https://ycombinator3.com/apply</v>
       </c>
       <c r="D45" t="str">
-        <v>apply@plugandplay4.co</v>
+        <v>apply@ycombinator3.com</v>
       </c>
       <c r="E45" t="str">
         <v>form</v>
       </c>
       <c r="F45" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G45" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H45" t="str">
-        <v>London, UK</v>
+        <v>New York, NY</v>
       </c>
       <c r="I45" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J45" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K45" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M45" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N45" t="str">
-        <v>B2B SaaS,Healthtech,Fintech</v>
+        <v>AI/ML,Fintech,Consumer</v>
       </c>
       <c r="O45" t="str">
-        <v>Global</v>
+        <v>Europe</v>
       </c>
       <c r="P45" t="str">
         <v>4-6%</v>
       </c>
       <c r="Q45" t="str">
-        <v>0-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R45" t="str">
         <v>6-10%</v>
       </c>
       <c r="S45" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T45" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>business_plan,video</v>
       </c>
       <c r="U45" t="str">
         <v>0</v>
@@ -3621,37 +3754,40 @@
       <c r="W45" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X45" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>500 Startups 4</v>
+        <v>MassChallenge 4</v>
       </c>
       <c r="B46" t="str">
-        <v>https://500startups4.com</v>
+        <v>https://masschallenge4.capital</v>
       </c>
       <c r="C46" t="str">
-        <v>https://500startups4.com/apply</v>
+        <v>https://masschallenge4.capital/apply</v>
       </c>
       <c r="D46" t="str">
-        <v>apply@500startups4.com</v>
+        <v>apply@masschallenge4.capital</v>
       </c>
       <c r="E46" t="str">
         <v>form</v>
       </c>
       <c r="F46" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G46" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H46" t="str">
-        <v>San Francisco, CA</v>
+        <v>New York, NY</v>
       </c>
       <c r="I46" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J46" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K46" t="str">
         <v>3</v>
@@ -3660,28 +3796,28 @@
         <v>2024-12-31</v>
       </c>
       <c r="M46" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N46" t="str">
-        <v>Deep tech,B2B SaaS,Gaming</v>
+        <v>Consumer,Fintech,Climate tech</v>
       </c>
       <c r="O46" t="str">
         <v>Europe</v>
       </c>
       <c r="P46" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q46" t="str">
         <v>0-25K</v>
       </c>
       <c r="R46" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S46" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T46" t="str">
-        <v>video,pitch_deck</v>
+        <v>financial_projections,video</v>
       </c>
       <c r="U46" t="str">
         <v>0</v>
@@ -3692,52 +3828,55 @@
       <c r="W46" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X46" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Techstars 5</v>
+        <v>Techstars 4</v>
       </c>
       <c r="B47" t="str">
-        <v>https://techstars5.vc</v>
+        <v>https://techstars4.io</v>
       </c>
       <c r="C47" t="str">
-        <v>https://techstars5.vc/apply</v>
+        <v>https://techstars4.io/apply</v>
       </c>
       <c r="D47" t="str">
-        <v>apply@techstars5.vc</v>
+        <v>apply@techstars4.io</v>
       </c>
       <c r="E47" t="str">
         <v>form</v>
       </c>
       <c r="F47" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G47" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H47" t="str">
-        <v>London, UK</v>
+        <v>Austin, TX</v>
       </c>
       <c r="I47" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J47" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K47" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M47" t="str">
-        <v>Seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N47" t="str">
-        <v>E-commerce,Marketplace,Climate tech</v>
+        <v>Consumer,Fintech,Developer tools</v>
       </c>
       <c r="O47" t="str">
-        <v>Global</v>
+        <v>Europe</v>
       </c>
       <c r="P47" t="str">
         <v>1-3%</v>
@@ -3746,48 +3885,51 @@
         <v>25K-50K</v>
       </c>
       <c r="R47" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S47" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T47" t="str">
-        <v>pitch_deck,video</v>
+        <v>financial_projections,video</v>
       </c>
       <c r="U47" t="str">
-        <v>6486</v>
+        <v>0</v>
       </c>
       <c r="V47" t="str">
         <v>true</v>
       </c>
       <c r="W47" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X47" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>RGA Accelerator 8</v>
+        <v>Y Combinator 4</v>
       </c>
       <c r="B48" t="str">
-        <v>https://rgaaccelerator8.io</v>
+        <v>https://ycombinator4.capital</v>
       </c>
       <c r="C48" t="str">
-        <v>https://rgaaccelerator8.io/apply</v>
+        <v>https://ycombinator4.capital/apply</v>
       </c>
       <c r="D48" t="str">
-        <v>apply@rgaaccelerator8.io</v>
+        <v>apply@ycombinator4.capital</v>
       </c>
       <c r="E48" t="str">
         <v>form</v>
       </c>
       <c r="F48" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G48" t="str">
         <v>12 months</v>
       </c>
       <c r="H48" t="str">
-        <v>Berlin, Germany</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I48" t="str">
         <v>false</v>
@@ -3796,7 +3938,7 @@
         <v>1-10</v>
       </c>
       <c r="K48" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L48" t="str">
         <v>2024-12-31</v>
@@ -3805,7 +3947,7 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N48" t="str">
-        <v>Healthtech,AI/ML,Marketplace</v>
+        <v>Climate tech,E-commerce,Fintech</v>
       </c>
       <c r="O48" t="str">
         <v>Global</v>
@@ -3814,16 +3956,16 @@
         <v>4-6%</v>
       </c>
       <c r="Q48" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R48" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S48" t="str">
         <v>simple</v>
       </c>
       <c r="T48" t="str">
-        <v>video,business_plan</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U48" t="str">
         <v>0</v>
@@ -3834,108 +3976,114 @@
       <c r="W48" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X48" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>500 Startups 5</v>
+        <v>Barclays Accelerator 5</v>
       </c>
       <c r="B49" t="str">
-        <v>https://500startups5.com</v>
+        <v>https://barclaysaccelerator5.capital</v>
       </c>
       <c r="C49" t="str">
-        <v>https://500startups5.com/apply</v>
+        <v>https://barclaysaccelerator5.capital/apply</v>
       </c>
       <c r="D49" t="str">
-        <v>apply@500startups5.com</v>
+        <v>apply@barclaysaccelerator5.capital</v>
       </c>
       <c r="E49" t="str">
         <v>form</v>
       </c>
       <c r="F49" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G49" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H49" t="str">
-        <v>Austin, TX</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I49" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J49" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K49" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M49" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N49" t="str">
-        <v>Fintech,E-commerce,B2B SaaS</v>
+        <v>AI/ML,Developer tools,B2B SaaS</v>
       </c>
       <c r="O49" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P49" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q49" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R49" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S49" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T49" t="str">
-        <v>video,pitch_deck</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U49" t="str">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="V49" t="str">
         <v>true</v>
       </c>
       <c r="W49" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X49" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>AngelPad 4</v>
+        <v>RGA Accelerator 4</v>
       </c>
       <c r="B50" t="str">
-        <v>https://angelpad4.io</v>
+        <v>https://rgaaccelerator4.co</v>
       </c>
       <c r="C50" t="str">
-        <v>https://angelpad4.io/apply</v>
+        <v>https://rgaaccelerator4.co/apply</v>
       </c>
       <c r="D50" t="str">
-        <v>apply@angelpad4.io</v>
+        <v>apply@rgaaccelerator4.co</v>
       </c>
       <c r="E50" t="str">
         <v>form</v>
       </c>
       <c r="F50" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G50" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H50" t="str">
-        <v>San Francisco, CA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I50" t="str">
         <v>true</v>
       </c>
       <c r="J50" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K50" t="str">
         <v>3</v>
@@ -3944,16 +4092,16 @@
         <v>2024-12-31</v>
       </c>
       <c r="M50" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N50" t="str">
-        <v>Climate tech,AI/ML,Consumer</v>
+        <v>Fintech,Developer tools,Deep tech</v>
       </c>
       <c r="O50" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P50" t="str">
-        <v>0%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q50" t="str">
         <v>50K-100K</v>
@@ -3962,19 +4110,22 @@
         <v>&lt;1%</v>
       </c>
       <c r="S50" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T50" t="str">
         <v>pitch_deck,financial_projections</v>
       </c>
       <c r="U50" t="str">
-        <v>2573</v>
+        <v>848</v>
       </c>
       <c r="V50" t="str">
         <v>true</v>
       </c>
       <c r="W50" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X50" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="51">
@@ -3982,155 +4133,161 @@
         <v>Barclays Accelerator 6</v>
       </c>
       <c r="B51" t="str">
-        <v>https://barclaysaccelerator6.vc</v>
+        <v>https://barclaysaccelerator6.co</v>
       </c>
       <c r="C51" t="str">
-        <v>https://barclaysaccelerator6.vc/apply</v>
+        <v>https://barclaysaccelerator6.co/apply</v>
       </c>
       <c r="D51" t="str">
-        <v>apply@barclaysaccelerator6.vc</v>
+        <v>apply@barclaysaccelerator6.co</v>
       </c>
       <c r="E51" t="str">
         <v>form</v>
       </c>
       <c r="F51" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G51" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H51" t="str">
-        <v>Seattle, WA</v>
+        <v>New York, NY</v>
       </c>
       <c r="I51" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J51" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K51" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L51" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M51" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N51" t="str">
-        <v>Web3,B2B SaaS,E-commerce</v>
+        <v>Consumer,AI/ML,Developer tools</v>
       </c>
       <c r="O51" t="str">
         <v>Asia</v>
       </c>
       <c r="P51" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q51" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R51" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S51" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T51" t="str">
-        <v>business_plan,video</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U51" t="str">
-        <v>8668</v>
+        <v>0</v>
       </c>
       <c r="V51" t="str">
         <v>true</v>
       </c>
       <c r="W51" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X51" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>500 Startups 6</v>
+        <v>MassChallenge 5</v>
       </c>
       <c r="B52" t="str">
-        <v>https://500startups6.io</v>
+        <v>https://masschallenge5.io</v>
       </c>
       <c r="C52" t="str">
-        <v>https://500startups6.io/apply</v>
+        <v>https://masschallenge5.io/apply</v>
       </c>
       <c r="D52" t="str">
-        <v>apply@500startups6.io</v>
+        <v>apply@masschallenge5.io</v>
       </c>
       <c r="E52" t="str">
         <v>form</v>
       </c>
       <c r="F52" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G52" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H52" t="str">
-        <v>San Francisco, CA</v>
+        <v>London, UK</v>
       </c>
       <c r="I52" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J52" t="str">
         <v>11-20</v>
       </c>
       <c r="K52" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M52" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N52" t="str">
-        <v>Developer tools,B2B SaaS,AI/ML</v>
+        <v>Gaming,B2B SaaS,Developer tools</v>
       </c>
       <c r="O52" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P52" t="str">
-        <v>1-3%</v>
+        <v>0%</v>
       </c>
       <c r="Q52" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R52" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S52" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T52" t="str">
-        <v>business_plan,financial_projections</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U52" t="str">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="V52" t="str">
         <v>true</v>
       </c>
       <c r="W52" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X52" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Founder Institute 5</v>
+        <v>Entrepreneurs Roundtable Accelerator 7</v>
       </c>
       <c r="B53" t="str">
-        <v>https://founderinstitute5.co</v>
+        <v>https://entrepreneursroundta.com</v>
       </c>
       <c r="C53" t="str">
-        <v>https://founderinstitute5.co/apply</v>
+        <v>https://entrepreneursroundta.com/apply</v>
       </c>
       <c r="D53" t="str">
-        <v>apply@founderinstitute5.co</v>
+        <v>apply@entrepreneursroundta.com</v>
       </c>
       <c r="E53" t="str">
         <v>form</v>
@@ -4139,140 +4296,146 @@
         <v>hybrid</v>
       </c>
       <c r="G53" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H53" t="str">
-        <v>Singapore</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I53" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J53" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K53" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M53" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N53" t="str">
-        <v>B2B SaaS,Fintech,Healthtech</v>
+        <v>Web3,B2B SaaS,Fintech</v>
       </c>
       <c r="O53" t="str">
         <v>North America</v>
       </c>
       <c r="P53" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q53" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R53" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S53" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T53" t="str">
-        <v>video,pitch_deck</v>
+        <v>business_plan,pitch_deck</v>
       </c>
       <c r="U53" t="str">
-        <v>6305</v>
+        <v>9630</v>
       </c>
       <c r="V53" t="str">
         <v>true</v>
       </c>
       <c r="W53" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X53" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Founder Institute 6</v>
+        <v>Entrepreneurs Roundtable Accelerator 8</v>
       </c>
       <c r="B54" t="str">
-        <v>https://founderinstitute6.com</v>
+        <v>https://entrepreneursroundta.co</v>
       </c>
       <c r="C54" t="str">
-        <v>https://founderinstitute6.com/apply</v>
+        <v>https://entrepreneursroundta.co/apply</v>
       </c>
       <c r="D54" t="str">
-        <v>apply@founderinstitute6.com</v>
+        <v>apply@entrepreneursroundta.co</v>
       </c>
       <c r="E54" t="str">
         <v>form</v>
       </c>
       <c r="F54" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G54" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H54" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I54" t="str">
         <v>true</v>
       </c>
       <c r="J54" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K54" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L54" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M54" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N54" t="str">
-        <v>Climate tech,Web3,Developer tools</v>
+        <v>B2B SaaS,Healthtech,Gaming</v>
       </c>
       <c r="O54" t="str">
         <v>North America</v>
       </c>
       <c r="P54" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q54" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R54" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S54" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T54" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U54" t="str">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="V54" t="str">
         <v>true</v>
       </c>
       <c r="W54" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X54" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>MassChallenge 4</v>
+        <v>AngelPad 4</v>
       </c>
       <c r="B55" t="str">
-        <v>https://masschallenge4.co</v>
+        <v>https://angelpad4.co</v>
       </c>
       <c r="C55" t="str">
-        <v>https://masschallenge4.co/apply</v>
+        <v>https://angelpad4.co/apply</v>
       </c>
       <c r="D55" t="str">
-        <v>apply@masschallenge4.co</v>
+        <v>apply@angelpad4.co</v>
       </c>
       <c r="E55" t="str">
         <v>form</v>
@@ -4293,96 +4456,99 @@
         <v>21-50</v>
       </c>
       <c r="K55" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M55" t="str">
-        <v>Series A,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N55" t="str">
-        <v>Gaming,B2B SaaS,Web3</v>
+        <v>Fintech,B2B SaaS,Consumer</v>
       </c>
       <c r="O55" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P55" t="str">
         <v>7-10%</v>
       </c>
       <c r="Q55" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R55" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S55" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T55" t="str">
-        <v>pitch_deck,video</v>
+        <v>business_plan,video</v>
       </c>
       <c r="U55" t="str">
-        <v>5845</v>
+        <v>0</v>
       </c>
       <c r="V55" t="str">
         <v>true</v>
       </c>
       <c r="W55" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X55" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Alchemist Accelerator 4</v>
+        <v>Plug and Play 5</v>
       </c>
       <c r="B56" t="str">
-        <v>https://alchemistaccelerator.vc</v>
+        <v>https://plugandplay5.com</v>
       </c>
       <c r="C56" t="str">
-        <v>https://alchemistaccelerator.vc/apply</v>
+        <v>https://plugandplay5.com/apply</v>
       </c>
       <c r="D56" t="str">
-        <v>apply@alchemistaccelerator.vc</v>
+        <v>apply@plugandplay5.com</v>
       </c>
       <c r="E56" t="str">
         <v>form</v>
       </c>
       <c r="F56" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G56" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H56" t="str">
-        <v>New York, NY</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I56" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J56" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K56" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M56" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N56" t="str">
-        <v>B2B SaaS,Developer tools,Web3</v>
+        <v>Consumer,Healthtech,AI/ML</v>
       </c>
       <c r="O56" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="P56" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q56" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R56" t="str">
         <v>6-10%</v>
@@ -4391,101 +4557,107 @@
         <v>comprehensive</v>
       </c>
       <c r="T56" t="str">
-        <v>traction_data,video</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U56" t="str">
-        <v>0</v>
+        <v>6724</v>
       </c>
       <c r="V56" t="str">
         <v>true</v>
       </c>
       <c r="W56" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X56" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Y Combinator 4</v>
+        <v>Barclays Accelerator 7</v>
       </c>
       <c r="B57" t="str">
-        <v>https://ycombinator4.io</v>
+        <v>https://barclaysaccelerator7.co</v>
       </c>
       <c r="C57" t="str">
-        <v>https://ycombinator4.io/apply</v>
+        <v>https://barclaysaccelerator7.co/apply</v>
       </c>
       <c r="D57" t="str">
-        <v>apply@ycombinator4.io</v>
+        <v>apply@barclaysaccelerator7.co</v>
       </c>
       <c r="E57" t="str">
         <v>form</v>
       </c>
       <c r="F57" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G57" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H57" t="str">
-        <v>New York, NY</v>
+        <v>Singapore</v>
       </c>
       <c r="I57" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J57" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K57" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M57" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N57" t="str">
-        <v>Healthtech,B2B SaaS,Web3</v>
+        <v>Climate tech,Consumer,Deep tech</v>
       </c>
       <c r="O57" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P57" t="str">
         <v>4-6%</v>
       </c>
       <c r="Q57" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R57" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S57" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T57" t="str">
-        <v>business_plan,traction_data</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U57" t="str">
-        <v>9844</v>
+        <v>0</v>
       </c>
       <c r="V57" t="str">
         <v>true</v>
       </c>
       <c r="W57" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X57" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Plug and Play 5</v>
+        <v>MassChallenge 6</v>
       </c>
       <c r="B58" t="str">
-        <v>https://plugandplay5.capital</v>
+        <v>https://masschallenge6.io</v>
       </c>
       <c r="C58" t="str">
-        <v>https://plugandplay5.capital/apply</v>
+        <v>https://masschallenge6.io/apply</v>
       </c>
       <c r="D58" t="str">
-        <v>apply@plugandplay5.capital</v>
+        <v>apply@masschallenge6.io</v>
       </c>
       <c r="E58" t="str">
         <v>form</v>
@@ -4497,28 +4669,28 @@
         <v>12 months</v>
       </c>
       <c r="H58" t="str">
-        <v>Seattle, WA</v>
+        <v>New York, NY</v>
       </c>
       <c r="I58" t="str">
         <v>true</v>
       </c>
       <c r="J58" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K58" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M58" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N58" t="str">
-        <v>B2B SaaS,Fintech,Consumer</v>
+        <v>Healthtech,Consumer,Fintech</v>
       </c>
       <c r="O58" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="P58" t="str">
         <v>0%</v>
@@ -4530,45 +4702,48 @@
         <v>6-10%</v>
       </c>
       <c r="S58" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T58" t="str">
-        <v>pitch_deck,traction_data</v>
+        <v>traction_data,video</v>
       </c>
       <c r="U58" t="str">
-        <v>0</v>
+        <v>9394</v>
       </c>
       <c r="V58" t="str">
         <v>true</v>
       </c>
       <c r="W58" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X58" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Founder Institute 7</v>
+        <v>HAX 6</v>
       </c>
       <c r="B59" t="str">
-        <v>https://founderinstitute7.vc</v>
+        <v>https://hax6.vc</v>
       </c>
       <c r="C59" t="str">
-        <v>https://founderinstitute7.vc/apply</v>
+        <v>https://hax6.vc/apply</v>
       </c>
       <c r="D59" t="str">
-        <v>apply@founderinstitute7.vc</v>
+        <v>apply@hax6.vc</v>
       </c>
       <c r="E59" t="str">
         <v>form</v>
       </c>
       <c r="F59" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G59" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H59" t="str">
-        <v>London, UK</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I59" t="str">
         <v>false</v>
@@ -4583,28 +4758,28 @@
         <v>2024-12-31</v>
       </c>
       <c r="M59" t="str">
-        <v>Series A,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N59" t="str">
-        <v>Deep tech,B2B SaaS,E-commerce</v>
+        <v>Fintech,Developer tools,Deep tech</v>
       </c>
       <c r="O59" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="P59" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q59" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R59" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S59" t="str">
         <v>standard</v>
       </c>
       <c r="T59" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>traction_data,financial_projections</v>
       </c>
       <c r="U59" t="str">
         <v>0</v>
@@ -4615,34 +4790,37 @@
       <c r="W59" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X59" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>AngelPad 5</v>
+        <v>500 Startups 4</v>
       </c>
       <c r="B60" t="str">
-        <v>https://angelpad5.io</v>
+        <v>https://500startups4.io</v>
       </c>
       <c r="C60" t="str">
-        <v>https://angelpad5.io/apply</v>
+        <v>https://500startups4.io/apply</v>
       </c>
       <c r="D60" t="str">
-        <v>apply@angelpad5.io</v>
+        <v>apply@500startups4.io</v>
       </c>
       <c r="E60" t="str">
         <v>form</v>
       </c>
       <c r="F60" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G60" t="str">
         <v>3 months</v>
       </c>
       <c r="H60" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I60" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J60" t="str">
         <v>11-20</v>
@@ -4654,28 +4832,28 @@
         <v>2024-12-31</v>
       </c>
       <c r="M60" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N60" t="str">
-        <v>AI/ML,B2B SaaS,Deep tech</v>
+        <v>B2B SaaS,Fintech,Web3</v>
       </c>
       <c r="O60" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P60" t="str">
         <v>0%</v>
       </c>
       <c r="Q60" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R60" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S60" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T60" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U60" t="str">
         <v>0</v>
@@ -4686,40 +4864,43 @@
       <c r="W60" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X60" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Techstars 6</v>
+        <v>Barclays Accelerator 8</v>
       </c>
       <c r="B61" t="str">
-        <v>https://techstars6.io</v>
+        <v>https://barclaysaccelerator8.co</v>
       </c>
       <c r="C61" t="str">
-        <v>https://techstars6.io/apply</v>
+        <v>https://barclaysaccelerator8.co/apply</v>
       </c>
       <c r="D61" t="str">
-        <v>apply@techstars6.io</v>
+        <v>apply@barclaysaccelerator8.co</v>
       </c>
       <c r="E61" t="str">
         <v>form</v>
       </c>
       <c r="F61" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G61" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H61" t="str">
-        <v>London, UK</v>
+        <v>Singapore</v>
       </c>
       <c r="I61" t="str">
         <v>false</v>
       </c>
       <c r="J61" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K61" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L61" t="str">
         <v>2024-12-31</v>
@@ -4728,87 +4909,90 @@
         <v>Series A,Pre-seed</v>
       </c>
       <c r="N61" t="str">
-        <v>Web3,AI/ML,Developer tools</v>
+        <v>Fintech,B2B SaaS,Marketplace</v>
       </c>
       <c r="O61" t="str">
-        <v>Europe</v>
+        <v>EMEA</v>
       </c>
       <c r="P61" t="str">
         <v>7-10%</v>
       </c>
       <c r="Q61" t="str">
-        <v>0-25K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R61" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S61" t="str">
         <v>simple</v>
       </c>
       <c r="T61" t="str">
-        <v>financial_projections,pitch_deck</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U61" t="str">
-        <v>9146</v>
+        <v>0</v>
       </c>
       <c r="V61" t="str">
         <v>true</v>
       </c>
       <c r="W61" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X61" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>HAX 5</v>
+        <v>Y Combinator 5</v>
       </c>
       <c r="B62" t="str">
-        <v>https://hax5.capital</v>
+        <v>https://ycombinator5.co</v>
       </c>
       <c r="C62" t="str">
-        <v>https://hax5.capital/apply</v>
+        <v>https://ycombinator5.co/apply</v>
       </c>
       <c r="D62" t="str">
-        <v>apply@hax5.capital</v>
+        <v>apply@ycombinator5.co</v>
       </c>
       <c r="E62" t="str">
         <v>form</v>
       </c>
       <c r="F62" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G62" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H62" t="str">
-        <v>Austin, TX</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I62" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J62" t="str">
         <v>21-50</v>
       </c>
       <c r="K62" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L62" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M62" t="str">
-        <v>Seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N62" t="str">
-        <v>B2B SaaS,AI/ML,Marketplace</v>
+        <v>AI/ML,B2B SaaS,Web3</v>
       </c>
       <c r="O62" t="str">
-        <v>Asia</v>
+        <v>Europe</v>
       </c>
       <c r="P62" t="str">
-        <v>0%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q62" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R62" t="str">
         <v>1-5%</v>
@@ -4817,113 +5001,119 @@
         <v>simple</v>
       </c>
       <c r="T62" t="str">
-        <v>business_plan,video</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U62" t="str">
-        <v>3466</v>
+        <v>6531</v>
       </c>
       <c r="V62" t="str">
         <v>true</v>
       </c>
       <c r="W62" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X62" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Alchemist Accelerator 5</v>
+        <v>Plug and Play 6</v>
       </c>
       <c r="B63" t="str">
-        <v>https://alchemistaccelerator.co</v>
+        <v>https://plugandplay6.co</v>
       </c>
       <c r="C63" t="str">
-        <v>https://alchemistaccelerator.co/apply</v>
+        <v>https://plugandplay6.co/apply</v>
       </c>
       <c r="D63" t="str">
-        <v>apply@alchemistaccelerator.co</v>
+        <v>apply@plugandplay6.co</v>
       </c>
       <c r="E63" t="str">
         <v>form</v>
       </c>
       <c r="F63" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G63" t="str">
         <v>3 months</v>
       </c>
       <c r="H63" t="str">
-        <v>San Francisco, CA</v>
+        <v>Austin, TX</v>
       </c>
       <c r="I63" t="str">
         <v>true</v>
       </c>
       <c r="J63" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K63" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L63" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M63" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N63" t="str">
-        <v>Climate tech,Healthtech,Gaming</v>
+        <v>Consumer,E-commerce,B2B SaaS</v>
       </c>
       <c r="O63" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="P63" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q63" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R63" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S63" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T63" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>traction_data,pitch_deck</v>
       </c>
       <c r="U63" t="str">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="V63" t="str">
         <v>true</v>
       </c>
       <c r="W63" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X63" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>MassChallenge 5</v>
+        <v>AngelPad 5</v>
       </c>
       <c r="B64" t="str">
-        <v>https://masschallenge5.vc</v>
+        <v>https://angelpad5.io</v>
       </c>
       <c r="C64" t="str">
-        <v>https://masschallenge5.vc/apply</v>
+        <v>https://angelpad5.io/apply</v>
       </c>
       <c r="D64" t="str">
-        <v>apply@masschallenge5.vc</v>
+        <v>apply@angelpad5.io</v>
       </c>
       <c r="E64" t="str">
         <v>form</v>
       </c>
       <c r="F64" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G64" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H64" t="str">
-        <v>Berlin, Germany</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I64" t="str">
         <v>true</v>
@@ -4932,48 +5122,51 @@
         <v>21-50</v>
       </c>
       <c r="K64" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L64" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M64" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N64" t="str">
-        <v>B2B SaaS,Developer tools,AI/ML</v>
+        <v>Web3,B2B SaaS,AI/ML</v>
       </c>
       <c r="O64" t="str">
         <v>North America</v>
       </c>
       <c r="P64" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q64" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R64" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S64" t="str">
         <v>standard</v>
       </c>
       <c r="T64" t="str">
-        <v>video,financial_projections</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U64" t="str">
-        <v>5633</v>
+        <v>1923</v>
       </c>
       <c r="V64" t="str">
         <v>true</v>
       </c>
       <c r="W64" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X64" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Entrepreneurs Roundtable Accelerator 5</v>
+        <v>Entrepreneurs Roundtable Accelerator 9</v>
       </c>
       <c r="B65" t="str">
         <v>https://entrepreneursroundta.capital</v>
@@ -4991,69 +5184,72 @@
         <v>hybrid</v>
       </c>
       <c r="G65" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H65" t="str">
-        <v>Seattle, WA</v>
+        <v>Singapore</v>
       </c>
       <c r="I65" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J65" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K65" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M65" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N65" t="str">
-        <v>Deep tech,Climate tech,B2B SaaS</v>
+        <v>AI/ML,B2B SaaS,Web3</v>
       </c>
       <c r="O65" t="str">
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="P65" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q65" t="str">
         <v>0-25K</v>
       </c>
       <c r="R65" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S65" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T65" t="str">
-        <v>pitch_deck,video</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U65" t="str">
-        <v>3547</v>
+        <v>0</v>
       </c>
       <c r="V65" t="str">
         <v>true</v>
       </c>
       <c r="W65" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X65" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Barclays Accelerator 7</v>
+        <v>Plug and Play 7</v>
       </c>
       <c r="B66" t="str">
-        <v>https://barclaysaccelerator7.co</v>
+        <v>https://plugandplay7.com</v>
       </c>
       <c r="C66" t="str">
-        <v>https://barclaysaccelerator7.co/apply</v>
+        <v>https://plugandplay7.com/apply</v>
       </c>
       <c r="D66" t="str">
-        <v>apply@barclaysaccelerator7.co</v>
+        <v>apply@plugandplay7.com</v>
       </c>
       <c r="E66" t="str">
         <v>form</v>
@@ -5062,19 +5258,19 @@
         <v>hybrid</v>
       </c>
       <c r="G66" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H66" t="str">
-        <v>Singapore</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I66" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J66" t="str">
         <v>11-20</v>
       </c>
       <c r="K66" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L66" t="str">
         <v>2024-12-31</v>
@@ -5083,7 +5279,7 @@
         <v>Pre-seed,Seed</v>
       </c>
       <c r="N66" t="str">
-        <v>Healthtech,B2B SaaS,Web3</v>
+        <v>Consumer,E-commerce,Web3</v>
       </c>
       <c r="O66" t="str">
         <v>Europe</v>
@@ -5092,60 +5288,63 @@
         <v>4-6%</v>
       </c>
       <c r="Q66" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R66" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S66" t="str">
         <v>standard</v>
       </c>
       <c r="T66" t="str">
-        <v>business_plan,video</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U66" t="str">
-        <v>1815</v>
+        <v>6117</v>
       </c>
       <c r="V66" t="str">
         <v>true</v>
       </c>
       <c r="W66" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X66" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Barclays Accelerator 8</v>
+        <v>HAX 7</v>
       </c>
       <c r="B67" t="str">
-        <v>https://barclaysaccelerator8.co</v>
+        <v>https://hax7.com</v>
       </c>
       <c r="C67" t="str">
-        <v>https://barclaysaccelerator8.co/apply</v>
+        <v>https://hax7.com/apply</v>
       </c>
       <c r="D67" t="str">
-        <v>apply@barclaysaccelerator8.co</v>
+        <v>apply@hax7.com</v>
       </c>
       <c r="E67" t="str">
         <v>form</v>
       </c>
       <c r="F67" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G67" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H67" t="str">
-        <v>San Francisco, CA</v>
+        <v>Singapore</v>
       </c>
       <c r="I67" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J67" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K67" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67" t="str">
         <v>2024-12-31</v>
@@ -5154,69 +5353,72 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N67" t="str">
-        <v>Fintech,AI/ML,Gaming</v>
+        <v>E-commerce,Deep tech,Healthtech</v>
       </c>
       <c r="O67" t="str">
         <v>EMEA</v>
       </c>
       <c r="P67" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q67" t="str">
         <v>0-25K</v>
       </c>
       <c r="R67" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S67" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T67" t="str">
-        <v>traction_data,video</v>
+        <v>business_plan,financial_projections</v>
       </c>
       <c r="U67" t="str">
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="V67" t="str">
         <v>true</v>
       </c>
       <c r="W67" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X67" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>MassChallenge 6</v>
+        <v>Techstars 5</v>
       </c>
       <c r="B68" t="str">
-        <v>https://masschallenge6.vc</v>
+        <v>https://techstars5.vc</v>
       </c>
       <c r="C68" t="str">
-        <v>https://masschallenge6.vc/apply</v>
+        <v>https://techstars5.vc/apply</v>
       </c>
       <c r="D68" t="str">
-        <v>apply@masschallenge6.vc</v>
+        <v>apply@techstars5.vc</v>
       </c>
       <c r="E68" t="str">
         <v>form</v>
       </c>
       <c r="F68" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G68" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H68" t="str">
-        <v>Boston, MA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I68" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J68" t="str">
         <v>11-20</v>
       </c>
       <c r="K68" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="str">
         <v>2024-12-31</v>
@@ -5225,7 +5427,7 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N68" t="str">
-        <v>B2B SaaS,Deep tech,Gaming</v>
+        <v>B2B SaaS,Fintech,Healthtech</v>
       </c>
       <c r="O68" t="str">
         <v>Europe</v>
@@ -5234,60 +5436,63 @@
         <v>0%</v>
       </c>
       <c r="Q68" t="str">
-        <v>50K-100K</v>
+        <v>0-25K</v>
       </c>
       <c r="R68" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S68" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T68" t="str">
-        <v>video,pitch_deck</v>
+        <v>traction_data,financial_projections</v>
       </c>
       <c r="U68" t="str">
-        <v>9619</v>
+        <v>0</v>
       </c>
       <c r="V68" t="str">
         <v>true</v>
       </c>
       <c r="W68" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X68" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>AngelPad 6</v>
+        <v>Plug and Play 8</v>
       </c>
       <c r="B69" t="str">
-        <v>https://angelpad6.com</v>
+        <v>https://plugandplay8.capital</v>
       </c>
       <c r="C69" t="str">
-        <v>https://angelpad6.com/apply</v>
+        <v>https://plugandplay8.capital/apply</v>
       </c>
       <c r="D69" t="str">
-        <v>apply@angelpad6.com</v>
+        <v>apply@plugandplay8.capital</v>
       </c>
       <c r="E69" t="str">
         <v>form</v>
       </c>
       <c r="F69" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G69" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H69" t="str">
-        <v>Berlin, Germany</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I69" t="str">
         <v>true</v>
       </c>
       <c r="J69" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K69" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" t="str">
         <v>2024-12-31</v>
@@ -5296,69 +5501,72 @@
         <v>Pre-seed,Series A</v>
       </c>
       <c r="N69" t="str">
-        <v>E-commerce,Web3,B2B SaaS</v>
+        <v>E-commerce,Developer tools,AI/ML</v>
       </c>
       <c r="O69" t="str">
-        <v>Asia</v>
+        <v>Global</v>
       </c>
       <c r="P69" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q69" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R69" t="str">
         <v>1-5%</v>
       </c>
       <c r="S69" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T69" t="str">
-        <v>financial_projections,business_plan</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U69" t="str">
-        <v>3722</v>
+        <v>1057</v>
       </c>
       <c r="V69" t="str">
         <v>true</v>
       </c>
       <c r="W69" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X69" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>MassChallenge 7</v>
+        <v>500 Startups 5</v>
       </c>
       <c r="B70" t="str">
-        <v>https://masschallenge7.com</v>
+        <v>https://500startups5.capital</v>
       </c>
       <c r="C70" t="str">
-        <v>https://masschallenge7.com/apply</v>
+        <v>https://500startups5.capital/apply</v>
       </c>
       <c r="D70" t="str">
-        <v>apply@masschallenge7.com</v>
+        <v>apply@500startups5.capital</v>
       </c>
       <c r="E70" t="str">
         <v>form</v>
       </c>
       <c r="F70" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G70" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H70" t="str">
-        <v>Boston, MA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I70" t="str">
         <v>true</v>
       </c>
       <c r="J70" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K70" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" t="str">
         <v>2024-12-31</v>
@@ -5367,60 +5575,63 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N70" t="str">
-        <v>Gaming,Web3,B2B SaaS</v>
+        <v>E-commerce,B2B SaaS,Fintech</v>
       </c>
       <c r="O70" t="str">
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="P70" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q70" t="str">
         <v>0-25K</v>
       </c>
       <c r="R70" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S70" t="str">
-        <v>simple</v>
+        <v>standard</v>
       </c>
       <c r="T70" t="str">
-        <v>financial_projections,business_plan</v>
+        <v>business_plan,pitch_deck</v>
       </c>
       <c r="U70" t="str">
-        <v>3036</v>
+        <v>844</v>
       </c>
       <c r="V70" t="str">
         <v>true</v>
       </c>
       <c r="W70" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X70" t="str">
+        <v>PRO</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>HAX 6</v>
+        <v>Alchemist Accelerator 5</v>
       </c>
       <c r="B71" t="str">
-        <v>https://hax6.io</v>
+        <v>https://alchemistaccelerator.com</v>
       </c>
       <c r="C71" t="str">
-        <v>https://hax6.io/apply</v>
+        <v>https://alchemistaccelerator.com/apply</v>
       </c>
       <c r="D71" t="str">
-        <v>apply@hax6.io</v>
+        <v>apply@alchemistaccelerator.com</v>
       </c>
       <c r="E71" t="str">
         <v>form</v>
       </c>
       <c r="F71" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G71" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H71" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I71" t="str">
         <v>true</v>
@@ -5429,34 +5640,34 @@
         <v>11-20</v>
       </c>
       <c r="K71" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M71" t="str">
-        <v>Series A,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N71" t="str">
-        <v>AI/ML,Healthtech,Developer tools</v>
+        <v>AI/ML,B2B SaaS,Developer tools</v>
       </c>
       <c r="O71" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P71" t="str">
-        <v>7-10%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q71" t="str">
-        <v>50K-100K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R71" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S71" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T71" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>traction_data,business_plan</v>
       </c>
       <c r="U71" t="str">
         <v>0</v>
@@ -5467,40 +5678,43 @@
       <c r="W71" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X71" t="str">
+        <v>PRO</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>SOSV 5</v>
+        <v>Startupbootcamp 5</v>
       </c>
       <c r="B72" t="str">
-        <v>https://sosv5.io</v>
+        <v>https://startupbootcamp5.co</v>
       </c>
       <c r="C72" t="str">
-        <v>https://sosv5.io/apply</v>
+        <v>https://startupbootcamp5.co/apply</v>
       </c>
       <c r="D72" t="str">
-        <v>apply@sosv5.io</v>
+        <v>apply@startupbootcamp5.co</v>
       </c>
       <c r="E72" t="str">
         <v>form</v>
       </c>
       <c r="F72" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G72" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H72" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I72" t="str">
         <v>true</v>
       </c>
       <c r="J72" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K72" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" t="str">
         <v>2024-12-31</v>
@@ -5509,60 +5723,63 @@
         <v>Seed,Series A</v>
       </c>
       <c r="N72" t="str">
-        <v>Climate tech,Consumer,Web3</v>
+        <v>B2B SaaS,AI/ML,Web3</v>
       </c>
       <c r="O72" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P72" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q72" t="str">
         <v>0-25K</v>
       </c>
       <c r="R72" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S72" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T72" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U72" t="str">
-        <v>0</v>
+        <v>5909</v>
       </c>
       <c r="V72" t="str">
         <v>true</v>
       </c>
       <c r="W72" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X72" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Founder Institute 8</v>
+        <v>Barclays Accelerator 9</v>
       </c>
       <c r="B73" t="str">
-        <v>https://founderinstitute8.io</v>
+        <v>https://barclaysaccelerator9.co</v>
       </c>
       <c r="C73" t="str">
-        <v>https://founderinstitute8.io/apply</v>
+        <v>https://barclaysaccelerator9.co/apply</v>
       </c>
       <c r="D73" t="str">
-        <v>apply@founderinstitute8.io</v>
+        <v>apply@barclaysaccelerator9.co</v>
       </c>
       <c r="E73" t="str">
         <v>form</v>
       </c>
       <c r="F73" t="str">
-        <v>hybrid</v>
+        <v>in-person</v>
       </c>
       <c r="G73" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H73" t="str">
-        <v>New York, NY</v>
+        <v>London, UK</v>
       </c>
       <c r="I73" t="str">
         <v>true</v>
@@ -5571,34 +5788,34 @@
         <v>1-10</v>
       </c>
       <c r="K73" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L73" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M73" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N73" t="str">
-        <v>B2B SaaS,Fintech,Healthtech</v>
+        <v>B2B SaaS,Deep tech,Fintech</v>
       </c>
       <c r="O73" t="str">
-        <v>Global</v>
+        <v>Asia</v>
       </c>
       <c r="P73" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q73" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R73" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S73" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T73" t="str">
-        <v>traction_data,business_plan</v>
+        <v>traction_data,financial_projections</v>
       </c>
       <c r="U73" t="str">
         <v>0</v>
@@ -5609,19 +5826,22 @@
       <c r="W73" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X73" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>500 Startups 7</v>
+        <v>Seedcamp 5</v>
       </c>
       <c r="B74" t="str">
-        <v>https://500startups7.io</v>
+        <v>https://seedcamp5.capital</v>
       </c>
       <c r="C74" t="str">
-        <v>https://500startups7.io/apply</v>
+        <v>https://seedcamp5.capital/apply</v>
       </c>
       <c r="D74" t="str">
-        <v>apply@500startups7.io</v>
+        <v>apply@seedcamp5.capital</v>
       </c>
       <c r="E74" t="str">
         <v>form</v>
@@ -5630,37 +5850,37 @@
         <v>in-person</v>
       </c>
       <c r="G74" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H74" t="str">
-        <v>New York, NY</v>
+        <v>Singapore</v>
       </c>
       <c r="I74" t="str">
         <v>true</v>
       </c>
       <c r="J74" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K74" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M74" t="str">
-        <v>Series A,Seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N74" t="str">
-        <v>B2B SaaS,Healthtech,Deep tech</v>
+        <v>Consumer,Web3,Climate tech</v>
       </c>
       <c r="O74" t="str">
-        <v>Asia</v>
+        <v>Global</v>
       </c>
       <c r="P74" t="str">
-        <v>4-6%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q74" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R74" t="str">
         <v>1-5%</v>
@@ -5669,7 +5889,7 @@
         <v>simple</v>
       </c>
       <c r="T74" t="str">
-        <v>video,pitch_deck</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U74" t="str">
         <v>0</v>
@@ -5680,19 +5900,22 @@
       <c r="W74" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X74" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Plug and Play 6</v>
+        <v>Founder Institute 5</v>
       </c>
       <c r="B75" t="str">
-        <v>https://plugandplay6.vc</v>
+        <v>https://founderinstitute5.com</v>
       </c>
       <c r="C75" t="str">
-        <v>https://plugandplay6.vc/apply</v>
+        <v>https://founderinstitute5.com/apply</v>
       </c>
       <c r="D75" t="str">
-        <v>apply@plugandplay6.vc</v>
+        <v>apply@founderinstitute5.com</v>
       </c>
       <c r="E75" t="str">
         <v>form</v>
@@ -5701,46 +5924,46 @@
         <v>remote</v>
       </c>
       <c r="G75" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H75" t="str">
-        <v>New York, NY</v>
+        <v>Singapore</v>
       </c>
       <c r="I75" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J75" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K75" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L75" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M75" t="str">
-        <v>Seed,Series A</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N75" t="str">
-        <v>B2B SaaS,E-commerce,Web3</v>
+        <v>E-commerce,Web3,AI/ML</v>
       </c>
       <c r="O75" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P75" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q75" t="str">
-        <v>25K-50K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R75" t="str">
         <v>1-5%</v>
       </c>
       <c r="S75" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T75" t="str">
-        <v>traction_data,business_plan</v>
+        <v>financial_projections,traction_data</v>
       </c>
       <c r="U75" t="str">
         <v>0</v>
@@ -5751,28 +5974,31 @@
       <c r="W75" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X75" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>HAX 7</v>
+        <v>Founder Institute 6</v>
       </c>
       <c r="B76" t="str">
-        <v>https://hax7.capital</v>
+        <v>https://founderinstitute6.co</v>
       </c>
       <c r="C76" t="str">
-        <v>https://hax7.capital/apply</v>
+        <v>https://founderinstitute6.co/apply</v>
       </c>
       <c r="D76" t="str">
-        <v>apply@hax7.capital</v>
+        <v>apply@founderinstitute6.co</v>
       </c>
       <c r="E76" t="str">
         <v>form</v>
       </c>
       <c r="F76" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G76" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H76" t="str">
         <v>Boston, MA</v>
@@ -5781,28 +6007,28 @@
         <v>false</v>
       </c>
       <c r="J76" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K76" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L76" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M76" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N76" t="str">
-        <v>Deep tech,Healthtech,AI/ML</v>
+        <v>B2B SaaS,E-commerce,Fintech</v>
       </c>
       <c r="O76" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P76" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q76" t="str">
-        <v>25K-50K</v>
+        <v>0-25K</v>
       </c>
       <c r="R76" t="str">
         <v>6-10%</v>
@@ -5811,30 +6037,33 @@
         <v>simple</v>
       </c>
       <c r="T76" t="str">
-        <v>pitch_deck,business_plan</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U76" t="str">
-        <v>0</v>
+        <v>5686</v>
       </c>
       <c r="V76" t="str">
         <v>true</v>
       </c>
       <c r="W76" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X76" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>HAX 8</v>
+        <v>AngelPad 6</v>
       </c>
       <c r="B77" t="str">
-        <v>https://hax8.vc</v>
+        <v>https://angelpad6.co</v>
       </c>
       <c r="C77" t="str">
-        <v>https://hax8.vc/apply</v>
+        <v>https://angelpad6.co/apply</v>
       </c>
       <c r="D77" t="str">
-        <v>apply@hax8.vc</v>
+        <v>apply@angelpad6.co</v>
       </c>
       <c r="E77" t="str">
         <v>form</v>
@@ -5843,140 +6072,146 @@
         <v>hybrid</v>
       </c>
       <c r="G77" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H77" t="str">
-        <v>New York, NY</v>
+        <v>London, UK</v>
       </c>
       <c r="I77" t="str">
         <v>false</v>
       </c>
       <c r="J77" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K77" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M77" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N77" t="str">
-        <v>B2B SaaS,Web3,Marketplace</v>
+        <v>B2B SaaS,Fintech,Developer tools</v>
       </c>
       <c r="O77" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="P77" t="str">
-        <v>4-6%</v>
+        <v>0%</v>
       </c>
       <c r="Q77" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R77" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S77" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T77" t="str">
-        <v>video,business_plan</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U77" t="str">
-        <v>0</v>
+        <v>9036</v>
       </c>
       <c r="V77" t="str">
         <v>true</v>
       </c>
       <c r="W77" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X77" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Alchemist Accelerator 6</v>
+        <v>Startupbootcamp 6</v>
       </c>
       <c r="B78" t="str">
-        <v>https://alchemistaccelerator.io</v>
+        <v>https://startupbootcamp6.com</v>
       </c>
       <c r="C78" t="str">
-        <v>https://alchemistaccelerator.io/apply</v>
+        <v>https://startupbootcamp6.com/apply</v>
       </c>
       <c r="D78" t="str">
-        <v>apply@alchemistaccelerator.io</v>
+        <v>apply@startupbootcamp6.com</v>
       </c>
       <c r="E78" t="str">
         <v>form</v>
       </c>
       <c r="F78" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G78" t="str">
         <v>3 months</v>
       </c>
       <c r="H78" t="str">
-        <v>Singapore</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I78" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J78" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K78" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M78" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N78" t="str">
-        <v>Fintech,AI/ML,E-commerce</v>
+        <v>E-commerce,Deep tech,Fintech</v>
       </c>
       <c r="O78" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="P78" t="str">
-        <v>1-3%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q78" t="str">
-        <v>50K-100K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R78" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S78" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T78" t="str">
-        <v>traction_data,video</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U78" t="str">
-        <v>8311</v>
+        <v>0</v>
       </c>
       <c r="V78" t="str">
         <v>true</v>
       </c>
       <c r="W78" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X78" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Plug and Play 7</v>
+        <v>Barclays Accelerator 10</v>
       </c>
       <c r="B79" t="str">
-        <v>https://plugandplay7.capital</v>
+        <v>https://barclaysaccelerator1.vc</v>
       </c>
       <c r="C79" t="str">
-        <v>https://plugandplay7.capital/apply</v>
+        <v>https://barclaysaccelerator1.vc/apply</v>
       </c>
       <c r="D79" t="str">
-        <v>apply@plugandplay7.capital</v>
+        <v>apply@barclaysaccelerator1.vc</v>
       </c>
       <c r="E79" t="str">
         <v>form</v>
@@ -5985,69 +6220,72 @@
         <v>in-person</v>
       </c>
       <c r="G79" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H79" t="str">
-        <v>Singapore</v>
+        <v>Austin, TX</v>
       </c>
       <c r="I79" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J79" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K79" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M79" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N79" t="str">
-        <v>E-commerce,Fintech,Marketplace</v>
+        <v>B2B SaaS,Consumer,Deep tech</v>
       </c>
       <c r="O79" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P79" t="str">
-        <v>4-6%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q79" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R79" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S79" t="str">
         <v>standard</v>
       </c>
       <c r="T79" t="str">
-        <v>pitch_deck,video</v>
+        <v>business_plan,pitch_deck</v>
       </c>
       <c r="U79" t="str">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="V79" t="str">
         <v>true</v>
       </c>
       <c r="W79" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X79" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>500 Startups 8</v>
+        <v>Startupbootcamp 7</v>
       </c>
       <c r="B80" t="str">
-        <v>https://500startups8.co</v>
+        <v>https://startupbootcamp7.io</v>
       </c>
       <c r="C80" t="str">
-        <v>https://500startups8.co/apply</v>
+        <v>https://startupbootcamp7.io/apply</v>
       </c>
       <c r="D80" t="str">
-        <v>apply@500startups8.co</v>
+        <v>apply@startupbootcamp7.io</v>
       </c>
       <c r="E80" t="str">
         <v>form</v>
@@ -6059,13 +6297,13 @@
         <v>3 months</v>
       </c>
       <c r="H80" t="str">
-        <v>New York, NY</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I80" t="str">
         <v>true</v>
       </c>
       <c r="J80" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K80" t="str">
         <v>4</v>
@@ -6077,140 +6315,146 @@
         <v>Seed,Pre-seed</v>
       </c>
       <c r="N80" t="str">
-        <v>E-commerce,Gaming,Web3</v>
+        <v>E-commerce,Fintech,Healthtech</v>
       </c>
       <c r="O80" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="P80" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q80" t="str">
-        <v>100K-250K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R80" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S80" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T80" t="str">
-        <v>financial_projections,traction_data</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U80" t="str">
-        <v>8159</v>
+        <v>0</v>
       </c>
       <c r="V80" t="str">
         <v>true</v>
       </c>
       <c r="W80" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X80" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>MassChallenge 8</v>
+        <v>Startupbootcamp 8</v>
       </c>
       <c r="B81" t="str">
-        <v>https://masschallenge8.com</v>
+        <v>https://startupbootcamp8.io</v>
       </c>
       <c r="C81" t="str">
-        <v>https://masschallenge8.com/apply</v>
+        <v>https://startupbootcamp8.io/apply</v>
       </c>
       <c r="D81" t="str">
-        <v>apply@masschallenge8.com</v>
+        <v>apply@startupbootcamp8.io</v>
       </c>
       <c r="E81" t="str">
         <v>form</v>
       </c>
       <c r="F81" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G81" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H81" t="str">
-        <v>London, UK</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I81" t="str">
         <v>false</v>
       </c>
       <c r="J81" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K81" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L81" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M81" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N81" t="str">
-        <v>B2B SaaS,Fintech,Healthtech</v>
+        <v>Developer tools,Gaming,Climate tech</v>
       </c>
       <c r="O81" t="str">
-        <v>EMEA</v>
+        <v>Global</v>
       </c>
       <c r="P81" t="str">
         <v>4-6%</v>
       </c>
       <c r="Q81" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R81" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S81" t="str">
-        <v>comprehensive</v>
+        <v>standard</v>
       </c>
       <c r="T81" t="str">
-        <v>video,business_plan</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U81" t="str">
-        <v>0</v>
+        <v>4363</v>
       </c>
       <c r="V81" t="str">
         <v>true</v>
       </c>
       <c r="W81" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X81" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Entrepreneurs Roundtable Accelerator 6</v>
+        <v>Plug and Play 9</v>
       </c>
       <c r="B82" t="str">
-        <v>https://entrepreneursroundta.io</v>
+        <v>https://plugandplay9.com</v>
       </c>
       <c r="C82" t="str">
-        <v>https://entrepreneursroundta.io/apply</v>
+        <v>https://plugandplay9.com/apply</v>
       </c>
       <c r="D82" t="str">
-        <v>apply@entrepreneursroundta.io</v>
+        <v>apply@plugandplay9.com</v>
       </c>
       <c r="E82" t="str">
         <v>form</v>
       </c>
       <c r="F82" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G82" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H82" t="str">
-        <v>Boston, MA</v>
+        <v>London, UK</v>
       </c>
       <c r="I82" t="str">
         <v>false</v>
       </c>
       <c r="J82" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K82" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82" t="str">
         <v>2024-12-31</v>
@@ -6219,7 +6463,7 @@
         <v>Pre-seed,Seed</v>
       </c>
       <c r="N82" t="str">
-        <v>Fintech,AI/ML,Developer tools</v>
+        <v>Fintech,B2B SaaS,Consumer</v>
       </c>
       <c r="O82" t="str">
         <v>Europe</v>
@@ -6228,39 +6472,42 @@
         <v>0%</v>
       </c>
       <c r="Q82" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R82" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S82" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T82" t="str">
         <v>video,pitch_deck</v>
       </c>
       <c r="U82" t="str">
-        <v>8479</v>
+        <v>6967</v>
       </c>
       <c r="V82" t="str">
         <v>true</v>
       </c>
       <c r="W82" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X82" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Y Combinator 6</v>
+        <v>HAX 8</v>
       </c>
       <c r="B83" t="str">
-        <v>https://ycombinator6.capital</v>
+        <v>https://hax8.capital</v>
       </c>
       <c r="C83" t="str">
-        <v>https://ycombinator6.capital/apply</v>
+        <v>https://hax8.capital/apply</v>
       </c>
       <c r="D83" t="str">
-        <v>apply@ycombinator6.capital</v>
+        <v>apply@hax8.capital</v>
       </c>
       <c r="E83" t="str">
         <v>form</v>
@@ -6272,13 +6519,13 @@
         <v>3 months</v>
       </c>
       <c r="H83" t="str">
-        <v>Boston, MA</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="I83" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J83" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K83" t="str">
         <v>1</v>
@@ -6287,90 +6534,93 @@
         <v>2024-12-31</v>
       </c>
       <c r="M83" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N83" t="str">
-        <v>B2B SaaS,Climate tech,Deep tech</v>
+        <v>Deep tech,E-commerce,Consumer</v>
       </c>
       <c r="O83" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P83" t="str">
         <v>4-6%</v>
       </c>
       <c r="Q83" t="str">
-        <v>0-25K</v>
+        <v>100K-250K</v>
       </c>
       <c r="R83" t="str">
         <v>&lt;1%</v>
       </c>
       <c r="S83" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T83" t="str">
-        <v>pitch_deck,financial_projections</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U83" t="str">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="V83" t="str">
         <v>true</v>
       </c>
       <c r="W83" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X83" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Y Combinator 7</v>
+        <v>Techstars 6</v>
       </c>
       <c r="B84" t="str">
-        <v>https://ycombinator7.capital</v>
+        <v>https://techstars6.co</v>
       </c>
       <c r="C84" t="str">
-        <v>https://ycombinator7.capital/apply</v>
+        <v>https://techstars6.co/apply</v>
       </c>
       <c r="D84" t="str">
-        <v>apply@ycombinator7.capital</v>
+        <v>apply@techstars6.co</v>
       </c>
       <c r="E84" t="str">
         <v>form</v>
       </c>
       <c r="F84" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G84" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H84" t="str">
-        <v>Boston, MA</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I84" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J84" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K84" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L84" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M84" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N84" t="str">
-        <v>Fintech,B2B SaaS,Gaming</v>
+        <v>Marketplace,B2B SaaS,Web3</v>
       </c>
       <c r="O84" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P84" t="str">
         <v>7-10%</v>
       </c>
       <c r="Q84" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R84" t="str">
         <v>&lt;1%</v>
@@ -6379,30 +6629,33 @@
         <v>standard</v>
       </c>
       <c r="T84" t="str">
-        <v>business_plan,video</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U84" t="str">
-        <v>9783</v>
+        <v>0</v>
       </c>
       <c r="V84" t="str">
         <v>true</v>
       </c>
       <c r="W84" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X84" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>AngelPad 7</v>
+        <v>SOSV 6</v>
       </c>
       <c r="B85" t="str">
-        <v>https://angelpad7.vc</v>
+        <v>https://sosv6.co</v>
       </c>
       <c r="C85" t="str">
-        <v>https://angelpad7.vc/apply</v>
+        <v>https://sosv6.co/apply</v>
       </c>
       <c r="D85" t="str">
-        <v>apply@angelpad7.vc</v>
+        <v>apply@sosv6.co</v>
       </c>
       <c r="E85" t="str">
         <v>form</v>
@@ -6411,232 +6664,241 @@
         <v>remote</v>
       </c>
       <c r="G85" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H85" t="str">
-        <v>London, UK</v>
+        <v>Boston, MA</v>
       </c>
       <c r="I85" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J85" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K85" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M85" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N85" t="str">
-        <v>Deep tech,AI/ML,Web3</v>
+        <v>AI/ML,Climate tech,Consumer</v>
       </c>
       <c r="O85" t="str">
-        <v>EMEA</v>
+        <v>Europe</v>
       </c>
       <c r="P85" t="str">
         <v>1-3%</v>
       </c>
       <c r="Q85" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R85" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S85" t="str">
         <v>simple</v>
       </c>
       <c r="T85" t="str">
-        <v>pitch_deck,video</v>
+        <v>traction_data,video</v>
       </c>
       <c r="U85" t="str">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="V85" t="str">
         <v>true</v>
       </c>
       <c r="W85" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X85" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>HAX 9</v>
+        <v>Y Combinator 6</v>
       </c>
       <c r="B86" t="str">
-        <v>https://hax9.vc</v>
+        <v>https://ycombinator6.capital</v>
       </c>
       <c r="C86" t="str">
-        <v>https://hax9.vc/apply</v>
+        <v>https://ycombinator6.capital/apply</v>
       </c>
       <c r="D86" t="str">
-        <v>apply@hax9.vc</v>
+        <v>apply@ycombinator6.capital</v>
       </c>
       <c r="E86" t="str">
         <v>form</v>
       </c>
       <c r="F86" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G86" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H86" t="str">
-        <v>London, UK</v>
+        <v>Singapore</v>
       </c>
       <c r="I86" t="str">
         <v>false</v>
       </c>
       <c r="J86" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K86" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M86" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N86" t="str">
-        <v>B2B SaaS,Fintech,Consumer</v>
+        <v>B2B SaaS,Gaming,Web3</v>
       </c>
       <c r="O86" t="str">
-        <v>Europe</v>
+        <v>North America</v>
       </c>
       <c r="P86" t="str">
         <v>7-10%</v>
       </c>
       <c r="Q86" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R86" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S86" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T86" t="str">
-        <v>traction_data,video</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U86" t="str">
-        <v>9619</v>
+        <v>160</v>
       </c>
       <c r="V86" t="str">
         <v>true</v>
       </c>
       <c r="W86" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X86" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Plug and Play 8</v>
+        <v>Alchemist Accelerator 6</v>
       </c>
       <c r="B87" t="str">
-        <v>https://plugandplay8.vc</v>
+        <v>https://alchemistaccelerator.capital</v>
       </c>
       <c r="C87" t="str">
-        <v>https://plugandplay8.vc/apply</v>
+        <v>https://alchemistaccelerator.capital/apply</v>
       </c>
       <c r="D87" t="str">
-        <v>apply@plugandplay8.vc</v>
+        <v>apply@alchemistaccelerator.capital</v>
       </c>
       <c r="E87" t="str">
         <v>form</v>
       </c>
       <c r="F87" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G87" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H87" t="str">
-        <v>Austin, TX</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I87" t="str">
         <v>true</v>
       </c>
       <c r="J87" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K87" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L87" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M87" t="str">
-        <v>Pre-seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N87" t="str">
-        <v>E-commerce,Fintech,Marketplace</v>
+        <v>Healthtech,Consumer,E-commerce</v>
       </c>
       <c r="O87" t="str">
-        <v>North America</v>
+        <v>Global</v>
       </c>
       <c r="P87" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q87" t="str">
-        <v>50K-100K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R87" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S87" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T87" t="str">
-        <v>video,pitch_deck</v>
+        <v>video,business_plan</v>
       </c>
       <c r="U87" t="str">
-        <v>4435</v>
+        <v>928</v>
       </c>
       <c r="V87" t="str">
         <v>true</v>
       </c>
       <c r="W87" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X87" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Techstars 7</v>
+        <v>HAX 9</v>
       </c>
       <c r="B88" t="str">
-        <v>https://techstars7.co</v>
+        <v>https://hax9.co</v>
       </c>
       <c r="C88" t="str">
-        <v>https://techstars7.co/apply</v>
+        <v>https://hax9.co/apply</v>
       </c>
       <c r="D88" t="str">
-        <v>apply@techstars7.co</v>
+        <v>apply@hax9.co</v>
       </c>
       <c r="E88" t="str">
         <v>form</v>
       </c>
       <c r="F88" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G88" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H88" t="str">
         <v>San Francisco, CA</v>
       </c>
       <c r="I88" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J88" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K88" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88" t="str">
         <v>2024-12-31</v>
@@ -6645,220 +6907,229 @@
         <v>Pre-seed,Series A</v>
       </c>
       <c r="N88" t="str">
-        <v>Gaming,Climate tech,B2B SaaS</v>
+        <v>Gaming,B2B SaaS,Web3</v>
       </c>
       <c r="O88" t="str">
-        <v>Asia</v>
+        <v>EMEA</v>
       </c>
       <c r="P88" t="str">
-        <v>0%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q88" t="str">
-        <v>25K-50K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R88" t="str">
-        <v>&lt;1%</v>
+        <v>1-5%</v>
       </c>
       <c r="S88" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T88" t="str">
-        <v>financial_projections,video</v>
+        <v>traction_data,financial_projections</v>
       </c>
       <c r="U88" t="str">
-        <v>0</v>
+        <v>5148</v>
       </c>
       <c r="V88" t="str">
         <v>true</v>
       </c>
       <c r="W88" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X88" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Techstars 8</v>
+        <v>Alchemist Accelerator 7</v>
       </c>
       <c r="B89" t="str">
-        <v>https://techstars8.com</v>
+        <v>https://alchemistaccelerator.capital</v>
       </c>
       <c r="C89" t="str">
-        <v>https://techstars8.com/apply</v>
+        <v>https://alchemistaccelerator.capital/apply</v>
       </c>
       <c r="D89" t="str">
-        <v>apply@techstars8.com</v>
+        <v>apply@alchemistaccelerator.capital</v>
       </c>
       <c r="E89" t="str">
         <v>form</v>
       </c>
       <c r="F89" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G89" t="str">
-        <v>3 months</v>
+        <v>12 months</v>
       </c>
       <c r="H89" t="str">
-        <v>New York, NY</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I89" t="str">
         <v>false</v>
       </c>
       <c r="J89" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K89" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M89" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N89" t="str">
-        <v>Gaming,E-commerce,Healthtech</v>
+        <v>B2B SaaS,E-commerce,Fintech</v>
       </c>
       <c r="O89" t="str">
-        <v>Europe</v>
+        <v>EMEA</v>
       </c>
       <c r="P89" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q89" t="str">
         <v>100K-250K</v>
       </c>
       <c r="R89" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S89" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T89" t="str">
-        <v>video,business_plan</v>
+        <v>financial_projections,traction_data</v>
       </c>
       <c r="U89" t="str">
-        <v>5025</v>
+        <v>5879</v>
       </c>
       <c r="V89" t="str">
         <v>true</v>
       </c>
       <c r="W89" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X89" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>MassChallenge 9</v>
+        <v>SOSV 7</v>
       </c>
       <c r="B90" t="str">
-        <v>https://masschallenge9.io</v>
+        <v>https://sosv7.capital</v>
       </c>
       <c r="C90" t="str">
-        <v>https://masschallenge9.io/apply</v>
+        <v>https://sosv7.capital/apply</v>
       </c>
       <c r="D90" t="str">
-        <v>apply@masschallenge9.io</v>
+        <v>apply@sosv7.capital</v>
       </c>
       <c r="E90" t="str">
         <v>form</v>
       </c>
       <c r="F90" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G90" t="str">
-        <v>3 months</v>
+        <v>6 months</v>
       </c>
       <c r="H90" t="str">
-        <v>Berlin, Germany</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I90" t="str">
         <v>false</v>
       </c>
       <c r="J90" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K90" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M90" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N90" t="str">
-        <v>B2B SaaS,Fintech,Web3</v>
+        <v>B2B SaaS,Marketplace,Web3</v>
       </c>
       <c r="O90" t="str">
         <v>Global</v>
       </c>
       <c r="P90" t="str">
-        <v>0%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q90" t="str">
-        <v>25K-50K</v>
+        <v>0-25K</v>
       </c>
       <c r="R90" t="str">
         <v>6-10%</v>
       </c>
       <c r="S90" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T90" t="str">
-        <v>video,financial_projections</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U90" t="str">
-        <v>3268</v>
+        <v>0</v>
       </c>
       <c r="V90" t="str">
         <v>true</v>
       </c>
       <c r="W90" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X90" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>HAX 10</v>
+        <v>Entrepreneurs Roundtable Accelerator 10</v>
       </c>
       <c r="B91" t="str">
-        <v>https://hax10.co</v>
+        <v>https://entrepreneursroundta.capital</v>
       </c>
       <c r="C91" t="str">
-        <v>https://hax10.co/apply</v>
+        <v>https://entrepreneursroundta.capital/apply</v>
       </c>
       <c r="D91" t="str">
-        <v>apply@hax10.co</v>
+        <v>apply@entrepreneursroundta.capital</v>
       </c>
       <c r="E91" t="str">
         <v>form</v>
       </c>
       <c r="F91" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G91" t="str">
-        <v>12 months</v>
+        <v>6 months</v>
       </c>
       <c r="H91" t="str">
-        <v>Singapore</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I91" t="str">
         <v>false</v>
       </c>
       <c r="J91" t="str">
-        <v>21-50</v>
+        <v>1-10</v>
       </c>
       <c r="K91" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M91" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Seed,Pre-seed</v>
       </c>
       <c r="N91" t="str">
-        <v>Consumer,B2B SaaS,AI/ML</v>
+        <v>Gaming,Web3,Climate tech</v>
       </c>
       <c r="O91" t="str">
         <v>North America</v>
@@ -6867,7 +7138,7 @@
         <v>4-6%</v>
       </c>
       <c r="Q91" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R91" t="str">
         <v>1-5%</v>
@@ -6876,30 +7147,33 @@
         <v>simple</v>
       </c>
       <c r="T91" t="str">
-        <v>financial_projections,traction_data</v>
+        <v>business_plan,traction_data</v>
       </c>
       <c r="U91" t="str">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="V91" t="str">
         <v>true</v>
       </c>
       <c r="W91" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X91" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Techstars 9</v>
+        <v>SOSV 8</v>
       </c>
       <c r="B92" t="str">
-        <v>https://techstars9.co</v>
+        <v>https://sosv8.io</v>
       </c>
       <c r="C92" t="str">
-        <v>https://techstars9.co/apply</v>
+        <v>https://sosv8.io/apply</v>
       </c>
       <c r="D92" t="str">
-        <v>apply@techstars9.co</v>
+        <v>apply@sosv8.io</v>
       </c>
       <c r="E92" t="str">
         <v>form</v>
@@ -6911,7 +7185,7 @@
         <v>3 months</v>
       </c>
       <c r="H92" t="str">
-        <v>San Francisco, CA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I92" t="str">
         <v>false</v>
@@ -6926,10 +7200,10 @@
         <v>2024-12-31</v>
       </c>
       <c r="M92" t="str">
-        <v>Seed,Series A</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N92" t="str">
-        <v>AI/ML,Consumer,Healthtech</v>
+        <v>AI/ML,Healthtech,Climate tech</v>
       </c>
       <c r="O92" t="str">
         <v>North America</v>
@@ -6938,57 +7212,60 @@
         <v>7-10%</v>
       </c>
       <c r="Q92" t="str">
-        <v>100K-250K</v>
+        <v>25K-50K</v>
       </c>
       <c r="R92" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S92" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T92" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U92" t="str">
-        <v>0</v>
+        <v>3197</v>
       </c>
       <c r="V92" t="str">
         <v>true</v>
       </c>
       <c r="W92" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X92" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Startupbootcamp 7</v>
+        <v>Alchemist Accelerator 8</v>
       </c>
       <c r="B93" t="str">
-        <v>https://startupbootcamp7.co</v>
+        <v>https://alchemistaccelerator.vc</v>
       </c>
       <c r="C93" t="str">
-        <v>https://startupbootcamp7.co/apply</v>
+        <v>https://alchemistaccelerator.vc/apply</v>
       </c>
       <c r="D93" t="str">
-        <v>apply@startupbootcamp7.co</v>
+        <v>apply@alchemistaccelerator.vc</v>
       </c>
       <c r="E93" t="str">
         <v>form</v>
       </c>
       <c r="F93" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G93" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H93" t="str">
         <v>San Francisco, CA</v>
       </c>
       <c r="I93" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J93" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K93" t="str">
         <v>2</v>
@@ -6997,122 +7274,128 @@
         <v>2024-12-31</v>
       </c>
       <c r="M93" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N93" t="str">
-        <v>B2B SaaS,Fintech,AI/ML</v>
+        <v>Healthtech,AI/ML,Gaming</v>
       </c>
       <c r="O93" t="str">
-        <v>EMEA</v>
+        <v>North America</v>
       </c>
       <c r="P93" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q93" t="str">
-        <v>0-25K</v>
+        <v>50K-100K</v>
       </c>
       <c r="R93" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S93" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T93" t="str">
-        <v>pitch_deck,traction_data</v>
+        <v>video,pitch_deck</v>
       </c>
       <c r="U93" t="str">
-        <v>9708</v>
+        <v>0</v>
       </c>
       <c r="V93" t="str">
         <v>true</v>
       </c>
       <c r="W93" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X93" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>AngelPad 8</v>
+        <v>Seedcamp 7</v>
       </c>
       <c r="B94" t="str">
-        <v>https://angelpad8.co</v>
+        <v>https://seedcamp7.com</v>
       </c>
       <c r="C94" t="str">
-        <v>https://angelpad8.co/apply</v>
+        <v>https://seedcamp7.com/apply</v>
       </c>
       <c r="D94" t="str">
-        <v>apply@angelpad8.co</v>
+        <v>apply@seedcamp7.com</v>
       </c>
       <c r="E94" t="str">
         <v>form</v>
       </c>
       <c r="F94" t="str">
-        <v>hybrid</v>
+        <v>remote</v>
       </c>
       <c r="G94" t="str">
         <v>12 months</v>
       </c>
       <c r="H94" t="str">
-        <v>New York, NY</v>
+        <v>London, UK</v>
       </c>
       <c r="I94" t="str">
         <v>false</v>
       </c>
       <c r="J94" t="str">
-        <v>11-20</v>
+        <v>21-50</v>
       </c>
       <c r="K94" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L94" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M94" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N94" t="str">
-        <v>Climate tech,AI/ML,Developer tools</v>
+        <v>Healthtech,B2B SaaS,Gaming</v>
       </c>
       <c r="O94" t="str">
-        <v>Global</v>
+        <v>EMEA</v>
       </c>
       <c r="P94" t="str">
-        <v>7-10%</v>
+        <v>0%</v>
       </c>
       <c r="Q94" t="str">
         <v>0-25K</v>
       </c>
       <c r="R94" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S94" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T94" t="str">
-        <v>video,financial_projections</v>
+        <v>financial_projections,video</v>
       </c>
       <c r="U94" t="str">
-        <v>2679</v>
+        <v>6703</v>
       </c>
       <c r="V94" t="str">
         <v>true</v>
       </c>
       <c r="W94" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X94" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Plug and Play 9</v>
+        <v>Plug and Play 10</v>
       </c>
       <c r="B95" t="str">
-        <v>https://plugandplay9.co</v>
+        <v>https://plugandplay10.capital</v>
       </c>
       <c r="C95" t="str">
-        <v>https://plugandplay9.co/apply</v>
+        <v>https://plugandplay10.capital/apply</v>
       </c>
       <c r="D95" t="str">
-        <v>apply@plugandplay9.co</v>
+        <v>apply@plugandplay10.capital</v>
       </c>
       <c r="E95" t="str">
         <v>form</v>
@@ -7124,7 +7407,7 @@
         <v>3 months</v>
       </c>
       <c r="H95" t="str">
-        <v>Austin, TX</v>
+        <v>New York, NY</v>
       </c>
       <c r="I95" t="str">
         <v>true</v>
@@ -7139,72 +7422,75 @@
         <v>2024-12-31</v>
       </c>
       <c r="M95" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Seed,Series A</v>
       </c>
       <c r="N95" t="str">
-        <v>Deep tech,B2B SaaS,Fintech</v>
+        <v>Developer tools,B2B SaaS,Gaming</v>
       </c>
       <c r="O95" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P95" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q95" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R95" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S95" t="str">
-        <v>standard</v>
+        <v>comprehensive</v>
       </c>
       <c r="T95" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U95" t="str">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="V95" t="str">
         <v>true</v>
       </c>
       <c r="W95" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X95" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>RGA Accelerator 9</v>
+        <v>MassChallenge 7</v>
       </c>
       <c r="B96" t="str">
-        <v>https://rgaaccelerator9.vc</v>
+        <v>https://masschallenge7.co</v>
       </c>
       <c r="C96" t="str">
-        <v>https://rgaaccelerator9.vc/apply</v>
+        <v>https://masschallenge7.co/apply</v>
       </c>
       <c r="D96" t="str">
-        <v>apply@rgaaccelerator9.vc</v>
+        <v>apply@masschallenge7.co</v>
       </c>
       <c r="E96" t="str">
         <v>form</v>
       </c>
       <c r="F96" t="str">
-        <v>remote</v>
+        <v>in-person</v>
       </c>
       <c r="G96" t="str">
         <v>12 months</v>
       </c>
       <c r="H96" t="str">
-        <v>Austin, TX</v>
+        <v>London, UK</v>
       </c>
       <c r="I96" t="str">
         <v>false</v>
       </c>
       <c r="J96" t="str">
-        <v>21-50</v>
+        <v>11-20</v>
       </c>
       <c r="K96" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96" t="str">
         <v>2024-12-31</v>
@@ -7213,48 +7499,51 @@
         <v>Pre-seed,Seed</v>
       </c>
       <c r="N96" t="str">
-        <v>B2B SaaS,Consumer,Developer tools</v>
+        <v>B2B SaaS,Climate tech,Fintech</v>
       </c>
       <c r="O96" t="str">
         <v>Europe</v>
       </c>
       <c r="P96" t="str">
-        <v>1-3%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q96" t="str">
-        <v>50K-100K</v>
+        <v>0-25K</v>
       </c>
       <c r="R96" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S96" t="str">
         <v>standard</v>
       </c>
       <c r="T96" t="str">
-        <v>video,business_plan</v>
+        <v>video,traction_data</v>
       </c>
       <c r="U96" t="str">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="V96" t="str">
         <v>true</v>
       </c>
       <c r="W96" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X96" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Entrepreneurs Roundtable Accelerator 7</v>
+        <v>MassChallenge 8</v>
       </c>
       <c r="B97" t="str">
-        <v>https://entrepreneursroundta.com</v>
+        <v>https://masschallenge8.io</v>
       </c>
       <c r="C97" t="str">
-        <v>https://entrepreneursroundta.com/apply</v>
+        <v>https://masschallenge8.io/apply</v>
       </c>
       <c r="D97" t="str">
-        <v>apply@entrepreneursroundta.com</v>
+        <v>apply@masschallenge8.io</v>
       </c>
       <c r="E97" t="str">
         <v>form</v>
@@ -7263,16 +7552,16 @@
         <v>in-person</v>
       </c>
       <c r="G97" t="str">
-        <v>6 months</v>
+        <v>12 months</v>
       </c>
       <c r="H97" t="str">
-        <v>Austin, TX</v>
+        <v>Berlin, Germany</v>
       </c>
       <c r="I97" t="str">
         <v>false</v>
       </c>
       <c r="J97" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K97" t="str">
         <v>2</v>
@@ -7281,10 +7570,10 @@
         <v>2024-12-31</v>
       </c>
       <c r="M97" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N97" t="str">
-        <v>Consumer,Healthtech,B2B SaaS</v>
+        <v>Climate tech,Consumer,B2B SaaS</v>
       </c>
       <c r="O97" t="str">
         <v>Asia</v>
@@ -7296,84 +7585,87 @@
         <v>0-25K</v>
       </c>
       <c r="R97" t="str">
-        <v>6-10%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S97" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T97" t="str">
-        <v>pitch_deck,video</v>
+        <v>financial_projections,business_plan</v>
       </c>
       <c r="U97" t="str">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="V97" t="str">
         <v>true</v>
       </c>
       <c r="W97" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X97" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Startupbootcamp 8</v>
+        <v>Startupbootcamp 9</v>
       </c>
       <c r="B98" t="str">
-        <v>https://startupbootcamp8.capital</v>
+        <v>https://startupbootcamp9.capital</v>
       </c>
       <c r="C98" t="str">
-        <v>https://startupbootcamp8.capital/apply</v>
+        <v>https://startupbootcamp9.capital/apply</v>
       </c>
       <c r="D98" t="str">
-        <v>apply@startupbootcamp8.capital</v>
+        <v>apply@startupbootcamp9.capital</v>
       </c>
       <c r="E98" t="str">
         <v>form</v>
       </c>
       <c r="F98" t="str">
-        <v>in-person</v>
+        <v>remote</v>
       </c>
       <c r="G98" t="str">
         <v>12 months</v>
       </c>
       <c r="H98" t="str">
-        <v>San Francisco, CA</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I98" t="str">
         <v>false</v>
       </c>
       <c r="J98" t="str">
-        <v>1-10</v>
+        <v>21-50</v>
       </c>
       <c r="K98" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L98" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M98" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Series A,Seed</v>
       </c>
       <c r="N98" t="str">
-        <v>B2B SaaS,Deep tech,Climate tech</v>
+        <v>AI/ML,Gaming,Developer tools</v>
       </c>
       <c r="O98" t="str">
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="P98" t="str">
-        <v>0%</v>
+        <v>1-3%</v>
       </c>
       <c r="Q98" t="str">
         <v>100K-250K</v>
       </c>
       <c r="R98" t="str">
-        <v>1-5%</v>
+        <v>&lt;1%</v>
       </c>
       <c r="S98" t="str">
-        <v>comprehensive</v>
+        <v>simple</v>
       </c>
       <c r="T98" t="str">
-        <v>business_plan,pitch_deck</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U98" t="str">
         <v>0</v>
@@ -7384,19 +7676,22 @@
       <c r="W98" t="str">
         <v>Generated sample data for testing</v>
       </c>
+      <c r="X98" t="str">
+        <v>MAX</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SOSV 7</v>
+        <v>RGA Accelerator 7</v>
       </c>
       <c r="B99" t="str">
-        <v>https://sosv7.io</v>
+        <v>https://rgaaccelerator7.vc</v>
       </c>
       <c r="C99" t="str">
-        <v>https://sosv7.io/apply</v>
+        <v>https://rgaaccelerator7.vc/apply</v>
       </c>
       <c r="D99" t="str">
-        <v>apply@sosv7.io</v>
+        <v>apply@rgaaccelerator7.vc</v>
       </c>
       <c r="E99" t="str">
         <v>form</v>
@@ -7411,81 +7706,84 @@
         <v>San Francisco, CA</v>
       </c>
       <c r="I99" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="J99" t="str">
         <v>11-20</v>
       </c>
       <c r="K99" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L99" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M99" t="str">
-        <v>Series A,Pre-seed</v>
+        <v>Pre-seed,Seed</v>
       </c>
       <c r="N99" t="str">
-        <v>Climate tech,Consumer,B2B SaaS</v>
+        <v>B2B SaaS,AI/ML,E-commerce</v>
       </c>
       <c r="O99" t="str">
-        <v>Europe</v>
+        <v>Global</v>
       </c>
       <c r="P99" t="str">
-        <v>7-10%</v>
+        <v>4-6%</v>
       </c>
       <c r="Q99" t="str">
         <v>50K-100K</v>
       </c>
       <c r="R99" t="str">
-        <v>6-10%</v>
+        <v>1-5%</v>
       </c>
       <c r="S99" t="str">
         <v>comprehensive</v>
       </c>
       <c r="T99" t="str">
-        <v>financial_projections,pitch_deck</v>
+        <v>pitch_deck,video</v>
       </c>
       <c r="U99" t="str">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="V99" t="str">
         <v>true</v>
       </c>
       <c r="W99" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X99" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Plug and Play 10</v>
+        <v>RGA Accelerator 8</v>
       </c>
       <c r="B100" t="str">
-        <v>https://plugandplay10.com</v>
+        <v>https://rgaaccelerator8.capital</v>
       </c>
       <c r="C100" t="str">
-        <v>https://plugandplay10.com/apply</v>
+        <v>https://rgaaccelerator8.capital/apply</v>
       </c>
       <c r="D100" t="str">
-        <v>apply@plugandplay10.com</v>
+        <v>apply@rgaaccelerator8.capital</v>
       </c>
       <c r="E100" t="str">
         <v>form</v>
       </c>
       <c r="F100" t="str">
-        <v>in-person</v>
+        <v>hybrid</v>
       </c>
       <c r="G100" t="str">
-        <v>12 months</v>
+        <v>3 months</v>
       </c>
       <c r="H100" t="str">
-        <v>London, UK</v>
+        <v>Austin, TX</v>
       </c>
       <c r="I100" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J100" t="str">
-        <v>1-10</v>
+        <v>11-20</v>
       </c>
       <c r="K100" t="str">
         <v>1</v>
@@ -7494,113 +7792,119 @@
         <v>2024-12-31</v>
       </c>
       <c r="M100" t="str">
-        <v>Seed,Pre-seed</v>
+        <v>Pre-seed,Series A</v>
       </c>
       <c r="N100" t="str">
-        <v>Fintech,Gaming,Web3</v>
+        <v>Marketplace,Consumer,B2B SaaS</v>
       </c>
       <c r="O100" t="str">
-        <v>EMEA</v>
+        <v>Asia</v>
       </c>
       <c r="P100" t="str">
         <v>4-6%</v>
       </c>
       <c r="Q100" t="str">
-        <v>100K-250K</v>
+        <v>0-25K</v>
       </c>
       <c r="R100" t="str">
-        <v>1-5%</v>
+        <v>6-10%</v>
       </c>
       <c r="S100" t="str">
-        <v>simple</v>
+        <v>comprehensive</v>
       </c>
       <c r="T100" t="str">
-        <v>pitch_deck,traction_data</v>
+        <v>business_plan,video</v>
       </c>
       <c r="U100" t="str">
-        <v>9645</v>
+        <v>0</v>
       </c>
       <c r="V100" t="str">
         <v>true</v>
       </c>
       <c r="W100" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X100" t="str">
+        <v>MAX</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>RGA Accelerator 10</v>
+        <v>MassChallenge 9</v>
       </c>
       <c r="B101" t="str">
-        <v>https://rgaaccelerator10.capital</v>
+        <v>https://masschallenge9.co</v>
       </c>
       <c r="C101" t="str">
-        <v>https://rgaaccelerator10.capital/apply</v>
+        <v>https://masschallenge9.co/apply</v>
       </c>
       <c r="D101" t="str">
-        <v>apply@rgaaccelerator10.capital</v>
+        <v>apply@masschallenge9.co</v>
       </c>
       <c r="E101" t="str">
         <v>form</v>
       </c>
       <c r="F101" t="str">
-        <v>remote</v>
+        <v>hybrid</v>
       </c>
       <c r="G101" t="str">
-        <v>6 months</v>
+        <v>3 months</v>
       </c>
       <c r="H101" t="str">
-        <v>London, UK</v>
+        <v>Seattle, WA</v>
       </c>
       <c r="I101" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="J101" t="str">
-        <v>11-20</v>
+        <v>1-10</v>
       </c>
       <c r="K101" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101" t="str">
         <v>2024-12-31</v>
       </c>
       <c r="M101" t="str">
-        <v>Pre-seed,Seed</v>
+        <v>Series A,Pre-seed</v>
       </c>
       <c r="N101" t="str">
-        <v>Consumer,Deep tech,Web3</v>
+        <v>B2B SaaS,Marketplace,E-commerce</v>
       </c>
       <c r="O101" t="str">
-        <v>North America</v>
+        <v>Asia</v>
       </c>
       <c r="P101" t="str">
-        <v>4-6%</v>
+        <v>7-10%</v>
       </c>
       <c r="Q101" t="str">
         <v>100K-250K</v>
       </c>
       <c r="R101" t="str">
-        <v>&lt;1%</v>
+        <v>6-10%</v>
       </c>
       <c r="S101" t="str">
-        <v>standard</v>
+        <v>simple</v>
       </c>
       <c r="T101" t="str">
-        <v>financial_projections,pitch_deck</v>
+        <v>pitch_deck,business_plan</v>
       </c>
       <c r="U101" t="str">
-        <v>9727</v>
+        <v>0</v>
       </c>
       <c r="V101" t="str">
         <v>true</v>
       </c>
       <c r="W101" t="str">
         <v>Generated sample data for testing</v>
+      </c>
+      <c r="X101" t="str">
+        <v>MAX</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X101"/>
   </ignoredErrors>
 </worksheet>
 </file>